--- a/datasets/september.xlsx
+++ b/datasets/september.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User\Documents\GitHub\VisualAnalytics\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB931CF-0DF8-4022-B838-A38A09C78D2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3906547-043D-4EB8-8D26-6CD45C492628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7186,13 +7186,13 @@
     <t>Category</t>
   </si>
   <si>
-    <t>Avg. Comments</t>
-  </si>
-  <si>
     <t>month</t>
   </si>
   <si>
     <t>september</t>
+  </si>
+  <si>
+    <t>Avg. comments</t>
   </si>
 </sst>
 </file>
@@ -8035,8 +8035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J869"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A830" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W19" sqref="W19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8074,10 +8074,10 @@
         <v>4</v>
       </c>
       <c r="I1" t="s">
+        <v>2390</v>
+      </c>
+      <c r="J1" t="s">
         <v>2388</v>
-      </c>
-      <c r="J1" t="s">
-        <v>2389</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -8109,7 +8109,7 @@
         <v>125</v>
       </c>
       <c r="J2" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -8141,7 +8141,7 @@
         <v>20</v>
       </c>
       <c r="J3" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -8173,7 +8173,7 @@
         <v>27</v>
       </c>
       <c r="J4" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -8205,7 +8205,7 @@
         <v>205</v>
       </c>
       <c r="J5" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -8237,7 +8237,7 @@
         <v>54</v>
       </c>
       <c r="J6" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -8269,7 +8269,7 @@
         <v>48</v>
       </c>
       <c r="J7" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -8298,7 +8298,7 @@
         <v>77</v>
       </c>
       <c r="J8" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -8327,7 +8327,7 @@
         <v>56</v>
       </c>
       <c r="J9" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -8359,7 +8359,7 @@
         <v>18</v>
       </c>
       <c r="J10" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -8391,7 +8391,7 @@
         <v>67</v>
       </c>
       <c r="J11" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -8423,7 +8423,7 @@
         <v>73</v>
       </c>
       <c r="J12" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -8455,7 +8455,7 @@
         <v>109</v>
       </c>
       <c r="J13" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -8484,7 +8484,7 @@
         <v>15</v>
       </c>
       <c r="J14" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -8516,7 +8516,7 @@
         <v>14</v>
       </c>
       <c r="J15" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -8548,7 +8548,7 @@
         <v>96</v>
       </c>
       <c r="J16" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -8580,7 +8580,7 @@
         <v>11</v>
       </c>
       <c r="J17" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -8609,7 +8609,7 @@
         <v>5</v>
       </c>
       <c r="J18" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -8641,7 +8641,7 @@
         <v>729</v>
       </c>
       <c r="J19" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -8673,7 +8673,7 @@
         <v>60</v>
       </c>
       <c r="J20" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -8705,7 +8705,7 @@
         <v>11</v>
       </c>
       <c r="J21" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -8737,7 +8737,7 @@
         <v>124</v>
       </c>
       <c r="J22" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -8769,7 +8769,7 @@
         <v>53</v>
       </c>
       <c r="J23" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -8801,7 +8801,7 @@
         <v>84</v>
       </c>
       <c r="J24" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -8833,7 +8833,7 @@
         <v>84</v>
       </c>
       <c r="J25" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -8865,7 +8865,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -8897,7 +8897,7 @@
         <v>19</v>
       </c>
       <c r="J27" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -8929,7 +8929,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -8961,7 +8961,7 @@
         <v>157</v>
       </c>
       <c r="J29" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -8990,7 +8990,7 @@
         <v>8</v>
       </c>
       <c r="J30" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -9022,7 +9022,7 @@
         <v>164</v>
       </c>
       <c r="J31" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -9051,7 +9051,7 @@
         <v>89</v>
       </c>
       <c r="J32" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -9083,7 +9083,7 @@
         <v>116</v>
       </c>
       <c r="J33" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -9115,7 +9115,7 @@
         <v>175</v>
       </c>
       <c r="J34" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -9144,7 +9144,7 @@
         <v>228</v>
       </c>
       <c r="J35" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -9176,7 +9176,7 @@
         <v>184</v>
       </c>
       <c r="J36" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -9208,7 +9208,7 @@
         <v>93</v>
       </c>
       <c r="J37" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -9240,7 +9240,7 @@
         <v>88</v>
       </c>
       <c r="J38" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -9272,7 +9272,7 @@
         <v>76</v>
       </c>
       <c r="J39" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -9301,7 +9301,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -9330,7 +9330,7 @@
         <v>4</v>
       </c>
       <c r="J41" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -9362,7 +9362,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -9391,7 +9391,7 @@
         <v>157</v>
       </c>
       <c r="J43" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -9420,7 +9420,7 @@
         <v>40</v>
       </c>
       <c r="J44" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -9452,7 +9452,7 @@
         <v>17</v>
       </c>
       <c r="J45" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -9484,7 +9484,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -9516,7 +9516,7 @@
         <v>133</v>
       </c>
       <c r="J47" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -9548,7 +9548,7 @@
         <v>240</v>
       </c>
       <c r="J48" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -9577,7 +9577,7 @@
         <v>189</v>
       </c>
       <c r="J49" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -9606,7 +9606,7 @@
         <v>5</v>
       </c>
       <c r="J50" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -9638,7 +9638,7 @@
         <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -9670,7 +9670,7 @@
         <v>258</v>
       </c>
       <c r="J52" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -9699,7 +9699,7 @@
         <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -9731,7 +9731,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -9760,7 +9760,7 @@
         <v>450</v>
       </c>
       <c r="J55" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -9792,7 +9792,7 @@
         <v>240</v>
       </c>
       <c r="J56" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -9824,7 +9824,7 @@
         <v>14</v>
       </c>
       <c r="J57" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -9853,7 +9853,7 @@
         <v>2</v>
       </c>
       <c r="J58" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -9885,7 +9885,7 @@
         <v>289</v>
       </c>
       <c r="J59" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -9914,7 +9914,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
@@ -9946,7 +9946,7 @@
         <v>297</v>
       </c>
       <c r="J61" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
@@ -9978,7 +9978,7 @@
         <v>416</v>
       </c>
       <c r="J62" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
@@ -10007,7 +10007,7 @@
         <v>306</v>
       </c>
       <c r="J63" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -10036,7 +10036,7 @@
         <v>6</v>
       </c>
       <c r="J64" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -10068,7 +10068,7 @@
         <v>4</v>
       </c>
       <c r="J65" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
@@ -10100,7 +10100,7 @@
         <v>317</v>
       </c>
       <c r="J66" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -10129,7 +10129,7 @@
         <v>9</v>
       </c>
       <c r="J67" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -10158,7 +10158,7 @@
         <v>8</v>
       </c>
       <c r="J68" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
@@ -10190,7 +10190,7 @@
         <v>204</v>
       </c>
       <c r="J69" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
@@ -10222,7 +10222,7 @@
         <v>204</v>
       </c>
       <c r="J70" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
@@ -10251,7 +10251,7 @@
         <v>2</v>
       </c>
       <c r="J71" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
@@ -10283,7 +10283,7 @@
         <v>339</v>
       </c>
       <c r="J72" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
@@ -10315,7 +10315,7 @@
         <v>31</v>
       </c>
       <c r="J73" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
@@ -10347,7 +10347,7 @@
         <v>12</v>
       </c>
       <c r="J74" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
@@ -10376,7 +10376,7 @@
         <v>579</v>
       </c>
       <c r="J75" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
@@ -10408,7 +10408,7 @@
         <v>68</v>
       </c>
       <c r="J76" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
@@ -10437,7 +10437,7 @@
         <v>22</v>
       </c>
       <c r="J77" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -10469,7 +10469,7 @@
         <v>28</v>
       </c>
       <c r="J78" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
@@ -10498,7 +10498,7 @@
         <v>69</v>
       </c>
       <c r="J79" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
@@ -10530,7 +10530,7 @@
         <v>175</v>
       </c>
       <c r="J80" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
@@ -10559,7 +10559,7 @@
         <v>796</v>
       </c>
       <c r="J81" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
@@ -10588,7 +10588,7 @@
         <v>80</v>
       </c>
       <c r="J82" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
@@ -10617,7 +10617,7 @@
         <v>8</v>
       </c>
       <c r="J83" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
@@ -10649,7 +10649,7 @@
         <v>789</v>
       </c>
       <c r="J84" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
@@ -10681,7 +10681,7 @@
         <v>96</v>
       </c>
       <c r="J85" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
@@ -10713,7 +10713,7 @@
         <v>393</v>
       </c>
       <c r="J86" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
@@ -10745,7 +10745,7 @@
         <v>171</v>
       </c>
       <c r="J87" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
@@ -10777,7 +10777,7 @@
         <v>11</v>
       </c>
       <c r="J88" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
@@ -10809,7 +10809,7 @@
         <v>390</v>
       </c>
       <c r="J89" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
@@ -10841,7 +10841,7 @@
         <v>74</v>
       </c>
       <c r="J90" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
@@ -10873,7 +10873,7 @@
         <v>742</v>
       </c>
       <c r="J91" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
@@ -10905,7 +10905,7 @@
         <v>189</v>
       </c>
       <c r="J92" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
@@ -10934,7 +10934,7 @@
         <v>10</v>
       </c>
       <c r="J93" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
@@ -10966,7 +10966,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
@@ -10998,7 +10998,7 @@
         <v>103</v>
       </c>
       <c r="J95" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
@@ -11030,7 +11030,7 @@
         <v>151</v>
       </c>
       <c r="J96" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
@@ -11062,7 +11062,7 @@
         <v>437</v>
       </c>
       <c r="J97" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
@@ -11094,7 +11094,7 @@
         <v>41</v>
       </c>
       <c r="J98" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
@@ -11126,7 +11126,7 @@
         <v>443</v>
       </c>
       <c r="J99" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
@@ -11158,7 +11158,7 @@
         <v>202</v>
       </c>
       <c r="J100" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
@@ -11187,7 +11187,7 @@
         <v>448</v>
       </c>
       <c r="J101" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
@@ -11216,7 +11216,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
@@ -11245,7 +11245,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
@@ -11277,7 +11277,7 @@
         <v>461</v>
       </c>
       <c r="J104" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
@@ -11309,7 +11309,7 @@
         <v>130</v>
       </c>
       <c r="J105" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
@@ -11338,7 +11338,7 @@
         <v>2</v>
       </c>
       <c r="J106" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
@@ -11367,7 +11367,7 @@
         <v>381</v>
       </c>
       <c r="J107" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
@@ -11396,7 +11396,7 @@
         <v>678</v>
       </c>
       <c r="J108" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
@@ -11428,7 +11428,7 @@
         <v>14</v>
       </c>
       <c r="J109" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
@@ -11457,7 +11457,7 @@
         <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
@@ -11489,7 +11489,7 @@
         <v>17</v>
       </c>
       <c r="J111" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
@@ -11518,7 +11518,7 @@
         <v>71</v>
       </c>
       <c r="J112" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
@@ -11550,7 +11550,7 @@
         <v>495</v>
       </c>
       <c r="J113" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
@@ -11582,7 +11582,7 @@
         <v>86</v>
       </c>
       <c r="J114" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
@@ -11614,7 +11614,7 @@
         <v>647</v>
       </c>
       <c r="J115" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
@@ -11643,7 +11643,7 @@
         <v>36</v>
       </c>
       <c r="J116" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
@@ -11675,7 +11675,7 @@
         <v>199</v>
       </c>
       <c r="J117" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
@@ -11707,7 +11707,7 @@
         <v>509</v>
       </c>
       <c r="J118" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
@@ -11739,7 +11739,7 @@
         <v>89</v>
       </c>
       <c r="J119" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
@@ -11771,7 +11771,7 @@
         <v>518</v>
       </c>
       <c r="J120" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
@@ -11803,7 +11803,7 @@
         <v>204</v>
       </c>
       <c r="J121" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
@@ -11835,7 +11835,7 @@
         <v>437</v>
       </c>
       <c r="J122" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
@@ -11867,7 +11867,7 @@
         <v>530</v>
       </c>
       <c r="J123" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
@@ -11899,7 +11899,7 @@
         <v>897</v>
       </c>
       <c r="J124" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
@@ -11931,7 +11931,7 @@
         <v>310</v>
       </c>
       <c r="J125" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
@@ -11963,7 +11963,7 @@
         <v>189</v>
       </c>
       <c r="J126" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
@@ -11995,7 +11995,7 @@
         <v>172</v>
       </c>
       <c r="J127" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
@@ -12027,7 +12027,7 @@
         <v>321</v>
       </c>
       <c r="J128" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
@@ -12059,7 +12059,7 @@
         <v>552</v>
       </c>
       <c r="J129" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
@@ -12091,7 +12091,7 @@
         <v>369</v>
       </c>
       <c r="J130" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
@@ -12123,7 +12123,7 @@
         <v>573</v>
       </c>
       <c r="J131" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
@@ -12155,7 +12155,7 @@
         <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
@@ -12184,7 +12184,7 @@
         <v>49</v>
       </c>
       <c r="J133" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
@@ -12216,7 +12216,7 @@
         <v>737</v>
       </c>
       <c r="J134" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
@@ -12248,7 +12248,7 @@
         <v>0</v>
       </c>
       <c r="J135" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
@@ -12280,7 +12280,7 @@
         <v>374</v>
       </c>
       <c r="J136" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
@@ -12309,7 +12309,7 @@
         <v>17</v>
       </c>
       <c r="J137" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
@@ -12341,7 +12341,7 @@
         <v>52</v>
       </c>
       <c r="J138" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
@@ -12373,7 +12373,7 @@
         <v>42</v>
       </c>
       <c r="J139" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
@@ -12405,7 +12405,7 @@
         <v>613</v>
       </c>
       <c r="J140" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
@@ -12437,7 +12437,7 @@
         <v>104</v>
       </c>
       <c r="J141" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
@@ -12469,7 +12469,7 @@
         <v>600</v>
       </c>
       <c r="J142" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
@@ -12501,7 +12501,7 @@
         <v>0</v>
       </c>
       <c r="J143" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
@@ -12533,7 +12533,7 @@
         <v>8</v>
       </c>
       <c r="J144" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
@@ -12565,7 +12565,7 @@
         <v>3</v>
       </c>
       <c r="J145" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
@@ -12594,7 +12594,7 @@
         <v>12</v>
       </c>
       <c r="J146" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
@@ -12626,7 +12626,7 @@
         <v>65</v>
       </c>
       <c r="J147" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
@@ -12658,7 +12658,7 @@
         <v>89</v>
       </c>
       <c r="J148" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
@@ -12690,7 +12690,7 @@
         <v>155</v>
       </c>
       <c r="J149" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
@@ -12719,7 +12719,7 @@
         <v>0</v>
       </c>
       <c r="J150" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
@@ -12751,7 +12751,7 @@
         <v>50</v>
       </c>
       <c r="J151" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
@@ -12783,7 +12783,7 @@
         <v>531</v>
       </c>
       <c r="J152" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
@@ -12812,7 +12812,7 @@
         <v>7</v>
       </c>
       <c r="J153" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
@@ -12841,7 +12841,7 @@
         <v>641</v>
       </c>
       <c r="J154" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
@@ -12873,7 +12873,7 @@
         <v>645</v>
       </c>
       <c r="J155" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
@@ -12902,7 +12902,7 @@
         <v>648</v>
       </c>
       <c r="J156" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
@@ -12934,7 +12934,7 @@
         <v>107</v>
       </c>
       <c r="J157" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
@@ -12966,7 +12966,7 @@
         <v>667</v>
       </c>
       <c r="J158" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
@@ -12998,7 +12998,7 @@
         <v>204</v>
       </c>
       <c r="J159" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
@@ -13027,7 +13027,7 @@
         <v>0</v>
       </c>
       <c r="J160" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
@@ -13059,7 +13059,7 @@
         <v>47</v>
       </c>
       <c r="J161" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
@@ -13088,7 +13088,7 @@
         <v>204</v>
       </c>
       <c r="J162" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
@@ -13120,7 +13120,7 @@
         <v>3</v>
       </c>
       <c r="J163" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
@@ -13149,7 +13149,7 @@
         <v>29</v>
       </c>
       <c r="J164" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
@@ -13178,7 +13178,7 @@
         <v>509</v>
       </c>
       <c r="J165" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
@@ -13210,7 +13210,7 @@
         <v>246</v>
       </c>
       <c r="J166" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
@@ -13242,7 +13242,7 @@
         <v>54</v>
       </c>
       <c r="J167" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
@@ -13274,7 +13274,7 @@
         <v>685</v>
       </c>
       <c r="J168" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
@@ -13303,7 +13303,7 @@
         <v>162</v>
       </c>
       <c r="J169" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
@@ -13332,7 +13332,7 @@
         <v>5</v>
       </c>
       <c r="J170" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
@@ -13364,7 +13364,7 @@
         <v>695</v>
       </c>
       <c r="J171" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
@@ -13396,7 +13396,7 @@
         <v>79</v>
       </c>
       <c r="J172" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
@@ -13428,7 +13428,7 @@
         <v>656</v>
       </c>
       <c r="J173" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
@@ -13457,7 +13457,7 @@
         <v>707</v>
       </c>
       <c r="J174" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
@@ -13489,7 +13489,7 @@
         <v>316</v>
       </c>
       <c r="J175" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
@@ -13521,7 +13521,7 @@
         <v>714</v>
       </c>
       <c r="J176" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
@@ -13553,7 +13553,7 @@
         <v>718</v>
       </c>
       <c r="J177" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
@@ -13585,7 +13585,7 @@
         <v>64</v>
       </c>
       <c r="J178" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
@@ -13617,7 +13617,7 @@
         <v>723</v>
       </c>
       <c r="J179" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
@@ -13649,7 +13649,7 @@
         <v>521</v>
       </c>
       <c r="J180" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
@@ -13681,7 +13681,7 @@
         <v>509</v>
       </c>
       <c r="J181" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
@@ -13713,7 +13713,7 @@
         <v>9</v>
       </c>
       <c r="J182" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
@@ -13745,7 +13745,7 @@
         <v>57</v>
       </c>
       <c r="J183" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
@@ -13774,7 +13774,7 @@
         <v>3</v>
       </c>
       <c r="J184" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
@@ -13806,7 +13806,7 @@
         <v>240</v>
       </c>
       <c r="J185" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
@@ -13835,7 +13835,7 @@
         <v>57</v>
       </c>
       <c r="J186" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
@@ -13864,7 +13864,7 @@
         <v>365</v>
       </c>
       <c r="J187" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
@@ -13893,7 +13893,7 @@
         <v>69</v>
       </c>
       <c r="J188" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
@@ -13922,7 +13922,7 @@
         <v>15</v>
       </c>
       <c r="J189" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
@@ -13954,7 +13954,7 @@
         <v>23</v>
       </c>
       <c r="J190" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
@@ -13986,7 +13986,7 @@
         <v>114</v>
       </c>
       <c r="J191" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
@@ -14018,7 +14018,7 @@
         <v>172</v>
       </c>
       <c r="J192" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
@@ -14050,7 +14050,7 @@
         <v>0</v>
       </c>
       <c r="J193" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
@@ -14082,7 +14082,7 @@
         <v>773</v>
       </c>
       <c r="J194" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
@@ -14111,7 +14111,7 @@
         <v>14</v>
       </c>
       <c r="J195" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
@@ -14143,7 +14143,7 @@
         <v>400</v>
       </c>
       <c r="J196" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
@@ -14175,7 +14175,7 @@
         <v>5</v>
       </c>
       <c r="J197" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
@@ -14204,7 +14204,7 @@
         <v>32</v>
       </c>
       <c r="J198" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
@@ -14236,7 +14236,7 @@
         <v>360</v>
       </c>
       <c r="J199" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
@@ -14265,7 +14265,7 @@
         <v>351</v>
       </c>
       <c r="J200" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.25">
@@ -14294,7 +14294,7 @@
         <v>8</v>
       </c>
       <c r="J201" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
@@ -14326,7 +14326,7 @@
         <v>33</v>
       </c>
       <c r="J202" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
@@ -14358,7 +14358,7 @@
         <v>76</v>
       </c>
       <c r="J203" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
@@ -14390,7 +14390,7 @@
         <v>103</v>
       </c>
       <c r="J204" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
@@ -14422,7 +14422,7 @@
         <v>608</v>
       </c>
       <c r="J205" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
@@ -14454,7 +14454,7 @@
         <v>175</v>
       </c>
       <c r="J206" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
@@ -14486,7 +14486,7 @@
         <v>786</v>
       </c>
       <c r="J207" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
@@ -14518,7 +14518,7 @@
         <v>555</v>
       </c>
       <c r="J208" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.25">
@@ -14547,7 +14547,7 @@
         <v>57</v>
       </c>
       <c r="J209" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
@@ -14579,7 +14579,7 @@
         <v>320</v>
       </c>
       <c r="J210" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
@@ -14608,7 +14608,7 @@
         <v>830</v>
       </c>
       <c r="J211" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
@@ -14637,7 +14637,7 @@
         <v>72</v>
       </c>
       <c r="J212" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
@@ -14669,7 +14669,7 @@
         <v>189</v>
       </c>
       <c r="J213" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.25">
@@ -14701,7 +14701,7 @@
         <v>784</v>
       </c>
       <c r="J214" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.25">
@@ -14733,7 +14733,7 @@
         <v>685</v>
       </c>
       <c r="J215" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
@@ -14765,7 +14765,7 @@
         <v>683</v>
       </c>
       <c r="J216" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
@@ -14794,7 +14794,7 @@
         <v>852</v>
       </c>
       <c r="J217" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.25">
@@ -14823,7 +14823,7 @@
         <v>19</v>
       </c>
       <c r="J218" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
@@ -14855,7 +14855,7 @@
         <v>15</v>
       </c>
       <c r="J219" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.25">
@@ -14887,7 +14887,7 @@
         <v>119</v>
       </c>
       <c r="J220" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
@@ -14919,7 +14919,7 @@
         <v>104</v>
       </c>
       <c r="J221" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
@@ -14951,7 +14951,7 @@
         <v>394</v>
       </c>
       <c r="J222" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
@@ -14983,7 +14983,7 @@
         <v>982</v>
       </c>
       <c r="J223" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.25">
@@ -15012,7 +15012,7 @@
         <v>105</v>
       </c>
       <c r="J224" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.25">
@@ -15044,7 +15044,7 @@
         <v>257</v>
       </c>
       <c r="J225" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.25">
@@ -15076,7 +15076,7 @@
         <v>317</v>
       </c>
       <c r="J226" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.25">
@@ -15108,7 +15108,7 @@
         <v>44</v>
       </c>
       <c r="J227" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.25">
@@ -15137,7 +15137,7 @@
         <v>328</v>
       </c>
       <c r="J228" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.25">
@@ -15166,7 +15166,7 @@
         <v>84</v>
       </c>
       <c r="J229" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.25">
@@ -15195,7 +15195,7 @@
         <v>0</v>
       </c>
       <c r="J230" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.25">
@@ -15227,7 +15227,7 @@
         <v>0</v>
       </c>
       <c r="J231" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.25">
@@ -15259,7 +15259,7 @@
         <v>535</v>
       </c>
       <c r="J232" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.25">
@@ -15291,7 +15291,7 @@
         <v>58</v>
       </c>
       <c r="J233" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.25">
@@ -15320,7 +15320,7 @@
         <v>6</v>
       </c>
       <c r="J234" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.25">
@@ -15352,7 +15352,7 @@
         <v>57</v>
       </c>
       <c r="J235" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.25">
@@ -15384,7 +15384,7 @@
         <v>189</v>
       </c>
       <c r="J236" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.25">
@@ -15416,7 +15416,7 @@
         <v>114</v>
       </c>
       <c r="J237" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.25">
@@ -15448,7 +15448,7 @@
         <v>895</v>
       </c>
       <c r="J238" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.25">
@@ -15480,7 +15480,7 @@
         <v>89</v>
       </c>
       <c r="J239" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.25">
@@ -15512,7 +15512,7 @@
         <v>175</v>
       </c>
       <c r="J240" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.25">
@@ -15544,7 +15544,7 @@
         <v>48</v>
       </c>
       <c r="J241" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.25">
@@ -15576,7 +15576,7 @@
         <v>923</v>
       </c>
       <c r="J242" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.25">
@@ -15608,7 +15608,7 @@
         <v>238</v>
       </c>
       <c r="J243" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.25">
@@ -15637,7 +15637,7 @@
         <v>3</v>
       </c>
       <c r="J244" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.25">
@@ -15669,7 +15669,7 @@
         <v>489</v>
       </c>
       <c r="J245" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.25">
@@ -15701,7 +15701,7 @@
         <v>52</v>
       </c>
       <c r="J246" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.25">
@@ -15733,7 +15733,7 @@
         <v>23</v>
       </c>
       <c r="J247" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.25">
@@ -15762,7 +15762,7 @@
         <v>942</v>
       </c>
       <c r="J248" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.25">
@@ -15794,7 +15794,7 @@
         <v>42</v>
       </c>
       <c r="J249" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.25">
@@ -15826,7 +15826,7 @@
         <v>596</v>
       </c>
       <c r="J250" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.25">
@@ -15858,7 +15858,7 @@
         <v>830</v>
       </c>
       <c r="J251" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.25">
@@ -15890,7 +15890,7 @@
         <v>136</v>
       </c>
       <c r="J252" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.25">
@@ -15922,7 +15922,7 @@
         <v>930</v>
       </c>
       <c r="J253" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.25">
@@ -15954,7 +15954,7 @@
         <v>9</v>
       </c>
       <c r="J254" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.25">
@@ -15986,7 +15986,7 @@
         <v>189</v>
       </c>
       <c r="J255" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.25">
@@ -16018,7 +16018,7 @@
         <v>89</v>
       </c>
       <c r="J256" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.25">
@@ -16050,7 +16050,7 @@
         <v>904</v>
       </c>
       <c r="J257" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.25">
@@ -16079,7 +16079,7 @@
         <v>3</v>
       </c>
       <c r="J258" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.25">
@@ -16111,7 +16111,7 @@
         <v>975</v>
       </c>
       <c r="J259" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.25">
@@ -16143,7 +16143,7 @@
         <v>389</v>
       </c>
       <c r="J260" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.25">
@@ -16175,7 +16175,7 @@
         <v>358</v>
       </c>
       <c r="J261" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.25">
@@ -16207,7 +16207,7 @@
         <v>20</v>
       </c>
       <c r="J262" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.25">
@@ -16239,7 +16239,7 @@
         <v>725</v>
       </c>
       <c r="J263" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.25">
@@ -16268,7 +16268,7 @@
         <v>132</v>
       </c>
       <c r="J264" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.25">
@@ -16300,7 +16300,7 @@
         <v>995</v>
       </c>
       <c r="J265" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.25">
@@ -16332,7 +16332,7 @@
         <v>703</v>
       </c>
       <c r="J266" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.25">
@@ -16361,7 +16361,7 @@
         <v>166</v>
       </c>
       <c r="J267" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.25">
@@ -16390,7 +16390,7 @@
         <v>96</v>
       </c>
       <c r="J268" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.25">
@@ -16422,7 +16422,7 @@
         <v>398</v>
       </c>
       <c r="J269" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.25">
@@ -16451,7 +16451,7 @@
         <v>176</v>
       </c>
       <c r="J270" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.25">
@@ -16483,7 +16483,7 @@
         <v>66</v>
       </c>
       <c r="J271" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.25">
@@ -16515,7 +16515,7 @@
         <v>9</v>
       </c>
       <c r="J272" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.25">
@@ -16544,7 +16544,7 @@
         <v>84</v>
       </c>
       <c r="J273" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.25">
@@ -16573,7 +16573,7 @@
         <v>42</v>
       </c>
       <c r="J274" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.25">
@@ -16605,7 +16605,7 @@
         <v>1025</v>
       </c>
       <c r="J275" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.25">
@@ -16634,7 +16634,7 @@
         <v>105</v>
       </c>
       <c r="J276" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.25">
@@ -16666,7 +16666,7 @@
         <v>66</v>
       </c>
       <c r="J277" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.25">
@@ -16695,7 +16695,7 @@
         <v>708</v>
       </c>
       <c r="J278" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.25">
@@ -16727,7 +16727,7 @@
         <v>175</v>
       </c>
       <c r="J279" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.25">
@@ -16759,7 +16759,7 @@
         <v>285</v>
       </c>
       <c r="J280" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.25">
@@ -16791,7 +16791,7 @@
         <v>324</v>
       </c>
       <c r="J281" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.25">
@@ -16823,7 +16823,7 @@
         <v>1048</v>
       </c>
       <c r="J282" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.25">
@@ -16855,7 +16855,7 @@
         <v>13</v>
       </c>
       <c r="J283" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.25">
@@ -16887,7 +16887,7 @@
         <v>289</v>
       </c>
       <c r="J284" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.25">
@@ -16916,7 +16916,7 @@
         <v>531</v>
       </c>
       <c r="J285" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.25">
@@ -16948,7 +16948,7 @@
         <v>645</v>
       </c>
       <c r="J286" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.25">
@@ -16977,7 +16977,7 @@
         <v>26</v>
       </c>
       <c r="J287" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.25">
@@ -17009,7 +17009,7 @@
         <v>1066</v>
       </c>
       <c r="J288" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.25">
@@ -17041,7 +17041,7 @@
         <v>534</v>
       </c>
       <c r="J289" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.25">
@@ -17073,7 +17073,7 @@
         <v>324</v>
       </c>
       <c r="J290" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.25">
@@ -17105,7 +17105,7 @@
         <v>1075</v>
       </c>
       <c r="J291" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.25">
@@ -17134,7 +17134,7 @@
         <v>9</v>
       </c>
       <c r="J292" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.25">
@@ -17166,7 +17166,7 @@
         <v>541</v>
       </c>
       <c r="J293" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.25">
@@ -17198,7 +17198,7 @@
         <v>57</v>
       </c>
       <c r="J294" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.25">
@@ -17227,7 +17227,7 @@
         <v>8</v>
       </c>
       <c r="J295" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.25">
@@ -17256,7 +17256,7 @@
         <v>64</v>
       </c>
       <c r="J296" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.25">
@@ -17285,7 +17285,7 @@
         <v>537</v>
       </c>
       <c r="J297" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.25">
@@ -17317,7 +17317,7 @@
         <v>247</v>
       </c>
       <c r="J298" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.25">
@@ -17349,7 +17349,7 @@
         <v>157</v>
       </c>
       <c r="J299" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.25">
@@ -17381,7 +17381,7 @@
         <v>409</v>
       </c>
       <c r="J300" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.25">
@@ -17410,7 +17410,7 @@
         <v>56</v>
       </c>
       <c r="J301" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.25">
@@ -17442,7 +17442,7 @@
         <v>199</v>
       </c>
       <c r="J302" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.25">
@@ -17474,7 +17474,7 @@
         <v>482</v>
       </c>
       <c r="J303" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.25">
@@ -17506,7 +17506,7 @@
         <v>0</v>
       </c>
       <c r="J304" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.25">
@@ -17535,7 +17535,7 @@
         <v>247</v>
       </c>
       <c r="J305" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.25">
@@ -17567,7 +17567,7 @@
         <v>57</v>
       </c>
       <c r="J306" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.25">
@@ -17596,7 +17596,7 @@
         <v>173</v>
       </c>
       <c r="J307" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.25">
@@ -17625,7 +17625,7 @@
         <v>35</v>
       </c>
       <c r="J308" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.25">
@@ -17657,7 +17657,7 @@
         <v>89</v>
       </c>
       <c r="J309" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.25">
@@ -17689,7 +17689,7 @@
         <v>1125</v>
       </c>
       <c r="J310" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.25">
@@ -17721,7 +17721,7 @@
         <v>450</v>
       </c>
       <c r="J311" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.25">
@@ -17753,7 +17753,7 @@
         <v>721</v>
       </c>
       <c r="J312" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.25">
@@ -17782,7 +17782,7 @@
         <v>40</v>
       </c>
       <c r="J313" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.25">
@@ -17811,7 +17811,7 @@
         <v>708</v>
       </c>
       <c r="J314" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.25">
@@ -17840,7 +17840,7 @@
         <v>199</v>
       </c>
       <c r="J315" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.25">
@@ -17872,7 +17872,7 @@
         <v>942</v>
       </c>
       <c r="J316" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.25">
@@ -17904,7 +17904,7 @@
         <v>449</v>
       </c>
       <c r="J317" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.25">
@@ -17936,7 +17936,7 @@
         <v>28</v>
       </c>
       <c r="J318" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.25">
@@ -17965,7 +17965,7 @@
         <v>1146</v>
       </c>
       <c r="J319" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.25">
@@ -17997,7 +17997,7 @@
         <v>7</v>
       </c>
       <c r="J320" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.25">
@@ -18029,7 +18029,7 @@
         <v>1152</v>
       </c>
       <c r="J321" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.25">
@@ -18061,7 +18061,7 @@
         <v>317</v>
       </c>
       <c r="J322" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.25">
@@ -18093,7 +18093,7 @@
         <v>43</v>
       </c>
       <c r="J323" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.25">
@@ -18125,7 +18125,7 @@
         <v>10</v>
       </c>
       <c r="J324" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.25">
@@ -18157,7 +18157,7 @@
         <v>37</v>
       </c>
       <c r="J325" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.25">
@@ -18189,7 +18189,7 @@
         <v>71</v>
       </c>
       <c r="J326" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.25">
@@ -18221,7 +18221,7 @@
         <v>81</v>
       </c>
       <c r="J327" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.25">
@@ -18253,7 +18253,7 @@
         <v>78</v>
       </c>
       <c r="J328" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.25">
@@ -18282,7 +18282,7 @@
         <v>4</v>
       </c>
       <c r="J329" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.25">
@@ -18314,7 +18314,7 @@
         <v>995</v>
       </c>
       <c r="J330" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.25">
@@ -18346,7 +18346,7 @@
         <v>98</v>
       </c>
       <c r="J331" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.25">
@@ -18378,7 +18378,7 @@
         <v>22</v>
       </c>
       <c r="J332" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.25">
@@ -18410,7 +18410,7 @@
         <v>125</v>
       </c>
       <c r="J333" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.25">
@@ -18442,7 +18442,7 @@
         <v>37</v>
       </c>
       <c r="J334" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.25">
@@ -18471,7 +18471,7 @@
         <v>2</v>
       </c>
       <c r="J335" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.25">
@@ -18500,7 +18500,7 @@
         <v>199</v>
       </c>
       <c r="J336" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.25">
@@ -18532,7 +18532,7 @@
         <v>509</v>
       </c>
       <c r="J337" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.25">
@@ -18564,7 +18564,7 @@
         <v>1200</v>
       </c>
       <c r="J338" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="339" spans="1:10" x14ac:dyDescent="0.25">
@@ -18593,7 +18593,7 @@
         <v>0</v>
       </c>
       <c r="J339" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.25">
@@ -18625,7 +18625,7 @@
         <v>6</v>
       </c>
       <c r="J340" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.25">
@@ -18654,7 +18654,7 @@
         <v>6</v>
       </c>
       <c r="J341" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.25">
@@ -18683,7 +18683,7 @@
         <v>9</v>
       </c>
       <c r="J342" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.25">
@@ -18712,7 +18712,7 @@
         <v>61</v>
       </c>
       <c r="J343" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.25">
@@ -18741,7 +18741,7 @@
         <v>2</v>
       </c>
       <c r="J344" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.25">
@@ -18773,7 +18773,7 @@
         <v>81</v>
       </c>
       <c r="J345" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.25">
@@ -18805,7 +18805,7 @@
         <v>0</v>
       </c>
       <c r="J346" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.25">
@@ -18834,7 +18834,7 @@
         <v>16</v>
       </c>
       <c r="J347" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="348" spans="1:10" x14ac:dyDescent="0.25">
@@ -18866,7 +18866,7 @@
         <v>23</v>
       </c>
       <c r="J348" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.25">
@@ -18898,7 +18898,7 @@
         <v>0</v>
       </c>
       <c r="J349" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.25">
@@ -18930,7 +18930,7 @@
         <v>216</v>
       </c>
       <c r="J350" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.25">
@@ -18962,7 +18962,7 @@
         <v>152</v>
       </c>
       <c r="J351" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.25">
@@ -18991,7 +18991,7 @@
         <v>285</v>
       </c>
       <c r="J352" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="353" spans="1:10" x14ac:dyDescent="0.25">
@@ -19023,7 +19023,7 @@
         <v>0</v>
       </c>
       <c r="J353" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.25">
@@ -19055,7 +19055,7 @@
         <v>604</v>
       </c>
       <c r="J354" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="355" spans="1:10" x14ac:dyDescent="0.25">
@@ -19087,7 +19087,7 @@
         <v>881</v>
       </c>
       <c r="J355" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.25">
@@ -19116,7 +19116,7 @@
         <v>2</v>
       </c>
       <c r="J356" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="357" spans="1:10" x14ac:dyDescent="0.25">
@@ -19148,7 +19148,7 @@
         <v>1250</v>
       </c>
       <c r="J357" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.25">
@@ -19180,7 +19180,7 @@
         <v>723</v>
       </c>
       <c r="J358" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="359" spans="1:10" x14ac:dyDescent="0.25">
@@ -19212,7 +19212,7 @@
         <v>35</v>
       </c>
       <c r="J359" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="360" spans="1:10" x14ac:dyDescent="0.25">
@@ -19244,7 +19244,7 @@
         <v>84</v>
       </c>
       <c r="J360" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="361" spans="1:10" x14ac:dyDescent="0.25">
@@ -19276,7 +19276,7 @@
         <v>84</v>
       </c>
       <c r="J361" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="362" spans="1:10" x14ac:dyDescent="0.25">
@@ -19308,7 +19308,7 @@
         <v>14</v>
       </c>
       <c r="J362" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="363" spans="1:10" x14ac:dyDescent="0.25">
@@ -19340,7 +19340,7 @@
         <v>284</v>
       </c>
       <c r="J363" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="364" spans="1:10" x14ac:dyDescent="0.25">
@@ -19369,7 +19369,7 @@
         <v>19</v>
       </c>
       <c r="J364" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="365" spans="1:10" x14ac:dyDescent="0.25">
@@ -19401,7 +19401,7 @@
         <v>33</v>
       </c>
       <c r="J365" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="366" spans="1:10" x14ac:dyDescent="0.25">
@@ -19433,7 +19433,7 @@
         <v>311</v>
       </c>
       <c r="J366" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="367" spans="1:10" x14ac:dyDescent="0.25">
@@ -19465,7 +19465,7 @@
         <v>33</v>
       </c>
       <c r="J367" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="368" spans="1:10" x14ac:dyDescent="0.25">
@@ -19497,7 +19497,7 @@
         <v>660</v>
       </c>
       <c r="J368" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="369" spans="1:10" x14ac:dyDescent="0.25">
@@ -19529,7 +19529,7 @@
         <v>612</v>
       </c>
       <c r="J369" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="370" spans="1:10" x14ac:dyDescent="0.25">
@@ -19558,7 +19558,7 @@
         <v>351</v>
       </c>
       <c r="J370" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="371" spans="1:10" x14ac:dyDescent="0.25">
@@ -19587,7 +19587,7 @@
         <v>39</v>
       </c>
       <c r="J371" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="372" spans="1:10" x14ac:dyDescent="0.25">
@@ -19619,7 +19619,7 @@
         <v>291</v>
       </c>
       <c r="J372" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="373" spans="1:10" x14ac:dyDescent="0.25">
@@ -19651,7 +19651,7 @@
         <v>0</v>
       </c>
       <c r="J373" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="374" spans="1:10" x14ac:dyDescent="0.25">
@@ -19683,7 +19683,7 @@
         <v>35</v>
       </c>
       <c r="J374" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="375" spans="1:10" x14ac:dyDescent="0.25">
@@ -19715,7 +19715,7 @@
         <v>2</v>
       </c>
       <c r="J375" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="376" spans="1:10" x14ac:dyDescent="0.25">
@@ -19747,7 +19747,7 @@
         <v>500</v>
       </c>
       <c r="J376" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="377" spans="1:10" x14ac:dyDescent="0.25">
@@ -19776,7 +19776,7 @@
         <v>6</v>
       </c>
       <c r="J377" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="378" spans="1:10" x14ac:dyDescent="0.25">
@@ -19808,7 +19808,7 @@
         <v>9</v>
       </c>
       <c r="J378" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="379" spans="1:10" x14ac:dyDescent="0.25">
@@ -19840,7 +19840,7 @@
         <v>23</v>
       </c>
       <c r="J379" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="380" spans="1:10" x14ac:dyDescent="0.25">
@@ -19872,7 +19872,7 @@
         <v>250</v>
       </c>
       <c r="J380" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="381" spans="1:10" x14ac:dyDescent="0.25">
@@ -19904,7 +19904,7 @@
         <v>0</v>
       </c>
       <c r="J381" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="382" spans="1:10" x14ac:dyDescent="0.25">
@@ -19936,7 +19936,7 @@
         <v>11</v>
       </c>
       <c r="J382" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="383" spans="1:10" x14ac:dyDescent="0.25">
@@ -19965,7 +19965,7 @@
         <v>0</v>
       </c>
       <c r="J383" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="384" spans="1:10" x14ac:dyDescent="0.25">
@@ -19997,7 +19997,7 @@
         <v>48</v>
       </c>
       <c r="J384" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="385" spans="1:10" x14ac:dyDescent="0.25">
@@ -20029,7 +20029,7 @@
         <v>199</v>
       </c>
       <c r="J385" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="386" spans="1:10" x14ac:dyDescent="0.25">
@@ -20061,7 +20061,7 @@
         <v>95</v>
       </c>
       <c r="J386" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="387" spans="1:10" x14ac:dyDescent="0.25">
@@ -20093,7 +20093,7 @@
         <v>58</v>
       </c>
       <c r="J387" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="388" spans="1:10" x14ac:dyDescent="0.25">
@@ -20122,7 +20122,7 @@
         <v>145</v>
       </c>
       <c r="J388" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="389" spans="1:10" x14ac:dyDescent="0.25">
@@ -20154,7 +20154,7 @@
         <v>817</v>
       </c>
       <c r="J389" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="390" spans="1:10" x14ac:dyDescent="0.25">
@@ -20183,7 +20183,7 @@
         <v>114</v>
       </c>
       <c r="J390" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="391" spans="1:10" x14ac:dyDescent="0.25">
@@ -20215,7 +20215,7 @@
         <v>556</v>
       </c>
       <c r="J391" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="392" spans="1:10" x14ac:dyDescent="0.25">
@@ -20247,7 +20247,7 @@
         <v>264</v>
       </c>
       <c r="J392" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="393" spans="1:10" x14ac:dyDescent="0.25">
@@ -20279,7 +20279,7 @@
         <v>26</v>
       </c>
       <c r="J393" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="394" spans="1:10" x14ac:dyDescent="0.25">
@@ -20311,7 +20311,7 @@
         <v>899</v>
       </c>
       <c r="J394" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="395" spans="1:10" x14ac:dyDescent="0.25">
@@ -20340,7 +20340,7 @@
         <v>584</v>
       </c>
       <c r="J395" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="396" spans="1:10" x14ac:dyDescent="0.25">
@@ -20369,7 +20369,7 @@
         <v>0</v>
       </c>
       <c r="J396" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="397" spans="1:10" x14ac:dyDescent="0.25">
@@ -20401,7 +20401,7 @@
         <v>103</v>
       </c>
       <c r="J397" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="398" spans="1:10" x14ac:dyDescent="0.25">
@@ -20430,7 +20430,7 @@
         <v>114</v>
       </c>
       <c r="J398" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="399" spans="1:10" x14ac:dyDescent="0.25">
@@ -20462,7 +20462,7 @@
         <v>1039</v>
       </c>
       <c r="J399" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="400" spans="1:10" x14ac:dyDescent="0.25">
@@ -20494,7 +20494,7 @@
         <v>555</v>
       </c>
       <c r="J400" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="401" spans="1:10" x14ac:dyDescent="0.25">
@@ -20523,7 +20523,7 @@
         <v>863</v>
       </c>
       <c r="J401" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="402" spans="1:10" x14ac:dyDescent="0.25">
@@ -20555,7 +20555,7 @@
         <v>768</v>
       </c>
       <c r="J402" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="403" spans="1:10" x14ac:dyDescent="0.25">
@@ -20584,7 +20584,7 @@
         <v>158</v>
       </c>
       <c r="J403" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="404" spans="1:10" x14ac:dyDescent="0.25">
@@ -20616,7 +20616,7 @@
         <v>64</v>
       </c>
       <c r="J404" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="405" spans="1:10" x14ac:dyDescent="0.25">
@@ -20648,7 +20648,7 @@
         <v>1364</v>
       </c>
       <c r="J405" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="406" spans="1:10" x14ac:dyDescent="0.25">
@@ -20680,7 +20680,7 @@
         <v>316</v>
       </c>
       <c r="J406" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="407" spans="1:10" x14ac:dyDescent="0.25">
@@ -20712,7 +20712,7 @@
         <v>4</v>
       </c>
       <c r="J407" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="408" spans="1:10" x14ac:dyDescent="0.25">
@@ -20744,7 +20744,7 @@
         <v>240</v>
       </c>
       <c r="J408" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="409" spans="1:10" x14ac:dyDescent="0.25">
@@ -20776,7 +20776,7 @@
         <v>114</v>
       </c>
       <c r="J409" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="410" spans="1:10" x14ac:dyDescent="0.25">
@@ -20808,7 +20808,7 @@
         <v>325</v>
       </c>
       <c r="J410" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="411" spans="1:10" x14ac:dyDescent="0.25">
@@ -20837,7 +20837,7 @@
         <v>1384</v>
       </c>
       <c r="J411" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="412" spans="1:10" x14ac:dyDescent="0.25">
@@ -20869,7 +20869,7 @@
         <v>449</v>
       </c>
       <c r="J412" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="413" spans="1:10" x14ac:dyDescent="0.25">
@@ -20898,7 +20898,7 @@
         <v>561</v>
       </c>
       <c r="J413" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="414" spans="1:10" x14ac:dyDescent="0.25">
@@ -20927,7 +20927,7 @@
         <v>88</v>
       </c>
       <c r="J414" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="415" spans="1:10" x14ac:dyDescent="0.25">
@@ -20959,7 +20959,7 @@
         <v>301</v>
       </c>
       <c r="J415" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="416" spans="1:10" x14ac:dyDescent="0.25">
@@ -20991,7 +20991,7 @@
         <v>76</v>
       </c>
       <c r="J416" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="417" spans="1:10" x14ac:dyDescent="0.25">
@@ -21023,7 +21023,7 @@
         <v>559</v>
       </c>
       <c r="J417" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="418" spans="1:10" x14ac:dyDescent="0.25">
@@ -21055,7 +21055,7 @@
         <v>80</v>
       </c>
       <c r="J418" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="419" spans="1:10" x14ac:dyDescent="0.25">
@@ -21084,7 +21084,7 @@
         <v>208</v>
       </c>
       <c r="J419" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="420" spans="1:10" x14ac:dyDescent="0.25">
@@ -21116,7 +21116,7 @@
         <v>339</v>
       </c>
       <c r="J420" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="421" spans="1:10" x14ac:dyDescent="0.25">
@@ -21148,7 +21148,7 @@
         <v>1412</v>
       </c>
       <c r="J421" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="422" spans="1:10" x14ac:dyDescent="0.25">
@@ -21180,7 +21180,7 @@
         <v>648</v>
       </c>
       <c r="J422" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="423" spans="1:10" x14ac:dyDescent="0.25">
@@ -21212,7 +21212,7 @@
         <v>328</v>
       </c>
       <c r="J423" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="424" spans="1:10" x14ac:dyDescent="0.25">
@@ -21244,7 +21244,7 @@
         <v>805</v>
       </c>
       <c r="J424" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="425" spans="1:10" x14ac:dyDescent="0.25">
@@ -21276,7 +21276,7 @@
         <v>276</v>
       </c>
       <c r="J425" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="426" spans="1:10" x14ac:dyDescent="0.25">
@@ -21308,7 +21308,7 @@
         <v>262</v>
       </c>
       <c r="J426" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="427" spans="1:10" x14ac:dyDescent="0.25">
@@ -21340,7 +21340,7 @@
         <v>209</v>
       </c>
       <c r="J427" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="428" spans="1:10" x14ac:dyDescent="0.25">
@@ -21369,7 +21369,7 @@
         <v>265</v>
       </c>
       <c r="J428" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="429" spans="1:10" x14ac:dyDescent="0.25">
@@ -21401,7 +21401,7 @@
         <v>52</v>
       </c>
       <c r="J429" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="430" spans="1:10" x14ac:dyDescent="0.25">
@@ -21433,7 +21433,7 @@
         <v>752</v>
       </c>
       <c r="J430" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="431" spans="1:10" x14ac:dyDescent="0.25">
@@ -21465,7 +21465,7 @@
         <v>204</v>
       </c>
       <c r="J431" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="432" spans="1:10" x14ac:dyDescent="0.25">
@@ -21494,7 +21494,7 @@
         <v>4</v>
       </c>
       <c r="J432" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="433" spans="1:10" x14ac:dyDescent="0.25">
@@ -21526,7 +21526,7 @@
         <v>224</v>
       </c>
       <c r="J433" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="434" spans="1:10" x14ac:dyDescent="0.25">
@@ -21558,7 +21558,7 @@
         <v>1</v>
       </c>
       <c r="J434" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="435" spans="1:10" x14ac:dyDescent="0.25">
@@ -21590,7 +21590,7 @@
         <v>258</v>
       </c>
       <c r="J435" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="436" spans="1:10" x14ac:dyDescent="0.25">
@@ -21622,7 +21622,7 @@
         <v>429</v>
       </c>
       <c r="J436" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="437" spans="1:10" x14ac:dyDescent="0.25">
@@ -21651,7 +21651,7 @@
         <v>220</v>
       </c>
       <c r="J437" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="438" spans="1:10" x14ac:dyDescent="0.25">
@@ -21683,7 +21683,7 @@
         <v>65</v>
       </c>
       <c r="J438" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="439" spans="1:10" x14ac:dyDescent="0.25">
@@ -21712,7 +21712,7 @@
         <v>18</v>
       </c>
       <c r="J439" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="440" spans="1:10" x14ac:dyDescent="0.25">
@@ -21744,7 +21744,7 @@
         <v>0</v>
       </c>
       <c r="J440" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="441" spans="1:10" x14ac:dyDescent="0.25">
@@ -21776,7 +21776,7 @@
         <v>1010</v>
       </c>
       <c r="J441" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="442" spans="1:10" x14ac:dyDescent="0.25">
@@ -21805,7 +21805,7 @@
         <v>44</v>
       </c>
       <c r="J442" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="443" spans="1:10" x14ac:dyDescent="0.25">
@@ -21837,7 +21837,7 @@
         <v>493</v>
       </c>
       <c r="J443" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="444" spans="1:10" x14ac:dyDescent="0.25">
@@ -21869,7 +21869,7 @@
         <v>75</v>
       </c>
       <c r="J444" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="445" spans="1:10" x14ac:dyDescent="0.25">
@@ -21901,7 +21901,7 @@
         <v>174</v>
       </c>
       <c r="J445" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="446" spans="1:10" x14ac:dyDescent="0.25">
@@ -21933,7 +21933,7 @@
         <v>270</v>
       </c>
       <c r="J446" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="447" spans="1:10" x14ac:dyDescent="0.25">
@@ -21965,7 +21965,7 @@
         <v>42</v>
       </c>
       <c r="J447" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="448" spans="1:10" x14ac:dyDescent="0.25">
@@ -21994,7 +21994,7 @@
         <v>11</v>
       </c>
       <c r="J448" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="449" spans="1:10" x14ac:dyDescent="0.25">
@@ -22026,7 +22026,7 @@
         <v>0</v>
       </c>
       <c r="J449" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="450" spans="1:10" x14ac:dyDescent="0.25">
@@ -22058,7 +22058,7 @@
         <v>133</v>
       </c>
       <c r="J450" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="451" spans="1:10" x14ac:dyDescent="0.25">
@@ -22090,7 +22090,7 @@
         <v>116</v>
       </c>
       <c r="J451" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="452" spans="1:10" x14ac:dyDescent="0.25">
@@ -22119,7 +22119,7 @@
         <v>1433</v>
       </c>
       <c r="J452" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="453" spans="1:10" x14ac:dyDescent="0.25">
@@ -22148,7 +22148,7 @@
         <v>156</v>
       </c>
       <c r="J453" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="454" spans="1:10" x14ac:dyDescent="0.25">
@@ -22177,7 +22177,7 @@
         <v>204</v>
       </c>
       <c r="J454" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="455" spans="1:10" x14ac:dyDescent="0.25">
@@ -22206,7 +22206,7 @@
         <v>204</v>
       </c>
       <c r="J455" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="456" spans="1:10" x14ac:dyDescent="0.25">
@@ -22235,7 +22235,7 @@
         <v>0</v>
       </c>
       <c r="J456" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="457" spans="1:10" x14ac:dyDescent="0.25">
@@ -22267,7 +22267,7 @@
         <v>36</v>
       </c>
       <c r="J457" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="458" spans="1:10" x14ac:dyDescent="0.25">
@@ -22296,7 +22296,7 @@
         <v>114</v>
       </c>
       <c r="J458" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="459" spans="1:10" x14ac:dyDescent="0.25">
@@ -22325,7 +22325,7 @@
         <v>38</v>
       </c>
       <c r="J459" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="460" spans="1:10" x14ac:dyDescent="0.25">
@@ -22357,7 +22357,7 @@
         <v>994</v>
       </c>
       <c r="J460" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="461" spans="1:10" x14ac:dyDescent="0.25">
@@ -22389,7 +22389,7 @@
         <v>331</v>
       </c>
       <c r="J461" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="462" spans="1:10" x14ac:dyDescent="0.25">
@@ -22418,7 +22418,7 @@
         <v>77</v>
       </c>
       <c r="J462" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="463" spans="1:10" x14ac:dyDescent="0.25">
@@ -22450,7 +22450,7 @@
         <v>204</v>
       </c>
       <c r="J463" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="464" spans="1:10" x14ac:dyDescent="0.25">
@@ -22482,7 +22482,7 @@
         <v>429</v>
       </c>
       <c r="J464" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="465" spans="1:10" x14ac:dyDescent="0.25">
@@ -22514,7 +22514,7 @@
         <v>217</v>
       </c>
       <c r="J465" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="466" spans="1:10" x14ac:dyDescent="0.25">
@@ -22546,7 +22546,7 @@
         <v>75</v>
       </c>
       <c r="J466" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="467" spans="1:10" x14ac:dyDescent="0.25">
@@ -22578,7 +22578,7 @@
         <v>11</v>
       </c>
       <c r="J467" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="468" spans="1:10" x14ac:dyDescent="0.25">
@@ -22610,7 +22610,7 @@
         <v>42</v>
       </c>
       <c r="J468" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="469" spans="1:10" x14ac:dyDescent="0.25">
@@ -22642,7 +22642,7 @@
         <v>428</v>
       </c>
       <c r="J469" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="470" spans="1:10" x14ac:dyDescent="0.25">
@@ -22674,7 +22674,7 @@
         <v>707</v>
       </c>
       <c r="J470" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="471" spans="1:10" x14ac:dyDescent="0.25">
@@ -22703,7 +22703,7 @@
         <v>38</v>
       </c>
       <c r="J471" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="472" spans="1:10" x14ac:dyDescent="0.25">
@@ -22735,7 +22735,7 @@
         <v>542</v>
       </c>
       <c r="J472" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="473" spans="1:10" x14ac:dyDescent="0.25">
@@ -22764,7 +22764,7 @@
         <v>627</v>
       </c>
       <c r="J473" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="474" spans="1:10" x14ac:dyDescent="0.25">
@@ -22796,7 +22796,7 @@
         <v>446</v>
       </c>
       <c r="J474" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="475" spans="1:10" x14ac:dyDescent="0.25">
@@ -22825,7 +22825,7 @@
         <v>942</v>
       </c>
       <c r="J475" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="476" spans="1:10" x14ac:dyDescent="0.25">
@@ -22857,7 +22857,7 @@
         <v>484</v>
       </c>
       <c r="J476" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="477" spans="1:10" x14ac:dyDescent="0.25">
@@ -22889,7 +22889,7 @@
         <v>0</v>
       </c>
       <c r="J477" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="478" spans="1:10" x14ac:dyDescent="0.25">
@@ -22921,7 +22921,7 @@
         <v>390</v>
       </c>
       <c r="J478" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="479" spans="1:10" x14ac:dyDescent="0.25">
@@ -22950,7 +22950,7 @@
         <v>377</v>
       </c>
       <c r="J479" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="480" spans="1:10" x14ac:dyDescent="0.25">
@@ -22982,7 +22982,7 @@
         <v>33</v>
       </c>
       <c r="J480" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="481" spans="1:10" x14ac:dyDescent="0.25">
@@ -23014,7 +23014,7 @@
         <v>723</v>
       </c>
       <c r="J481" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="482" spans="1:10" x14ac:dyDescent="0.25">
@@ -23046,7 +23046,7 @@
         <v>199</v>
       </c>
       <c r="J482" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="483" spans="1:10" x14ac:dyDescent="0.25">
@@ -23078,7 +23078,7 @@
         <v>0</v>
       </c>
       <c r="J483" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="484" spans="1:10" x14ac:dyDescent="0.25">
@@ -23110,7 +23110,7 @@
         <v>714</v>
       </c>
       <c r="J484" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="485" spans="1:10" x14ac:dyDescent="0.25">
@@ -23142,7 +23142,7 @@
         <v>747</v>
       </c>
       <c r="J485" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="486" spans="1:10" x14ac:dyDescent="0.25">
@@ -23174,7 +23174,7 @@
         <v>365</v>
       </c>
       <c r="J486" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="487" spans="1:10" x14ac:dyDescent="0.25">
@@ -23203,7 +23203,7 @@
         <v>208</v>
       </c>
       <c r="J487" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="488" spans="1:10" x14ac:dyDescent="0.25">
@@ -23235,7 +23235,7 @@
         <v>50</v>
       </c>
       <c r="J488" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="489" spans="1:10" x14ac:dyDescent="0.25">
@@ -23267,7 +23267,7 @@
         <v>786</v>
       </c>
       <c r="J489" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="490" spans="1:10" x14ac:dyDescent="0.25">
@@ -23299,7 +23299,7 @@
         <v>810</v>
       </c>
       <c r="J490" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="491" spans="1:10" x14ac:dyDescent="0.25">
@@ -23331,7 +23331,7 @@
         <v>114</v>
       </c>
       <c r="J491" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="492" spans="1:10" x14ac:dyDescent="0.25">
@@ -23360,7 +23360,7 @@
         <v>24</v>
       </c>
       <c r="J492" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="493" spans="1:10" x14ac:dyDescent="0.25">
@@ -23392,7 +23392,7 @@
         <v>535</v>
       </c>
       <c r="J493" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="494" spans="1:10" x14ac:dyDescent="0.25">
@@ -23424,7 +23424,7 @@
         <v>137</v>
       </c>
       <c r="J494" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="495" spans="1:10" x14ac:dyDescent="0.25">
@@ -23456,7 +23456,7 @@
         <v>819</v>
       </c>
       <c r="J495" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="496" spans="1:10" x14ac:dyDescent="0.25">
@@ -23488,7 +23488,7 @@
         <v>333</v>
       </c>
       <c r="J496" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="497" spans="1:10" x14ac:dyDescent="0.25">
@@ -23520,7 +23520,7 @@
         <v>449</v>
       </c>
       <c r="J497" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="498" spans="1:10" x14ac:dyDescent="0.25">
@@ -23552,7 +23552,7 @@
         <v>27</v>
       </c>
       <c r="J498" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="499" spans="1:10" x14ac:dyDescent="0.25">
@@ -23584,7 +23584,7 @@
         <v>4</v>
       </c>
       <c r="J499" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="500" spans="1:10" x14ac:dyDescent="0.25">
@@ -23613,7 +23613,7 @@
         <v>68</v>
       </c>
       <c r="J500" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="501" spans="1:10" x14ac:dyDescent="0.25">
@@ -23645,7 +23645,7 @@
         <v>335</v>
       </c>
       <c r="J501" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="502" spans="1:10" x14ac:dyDescent="0.25">
@@ -23677,7 +23677,7 @@
         <v>318</v>
       </c>
       <c r="J502" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="503" spans="1:10" x14ac:dyDescent="0.25">
@@ -23706,7 +23706,7 @@
         <v>1610</v>
       </c>
       <c r="J503" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="504" spans="1:10" x14ac:dyDescent="0.25">
@@ -23738,7 +23738,7 @@
         <v>52</v>
       </c>
       <c r="J504" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="505" spans="1:10" x14ac:dyDescent="0.25">
@@ -23770,7 +23770,7 @@
         <v>79</v>
       </c>
       <c r="J505" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="506" spans="1:10" x14ac:dyDescent="0.25">
@@ -23802,7 +23802,7 @@
         <v>1632</v>
       </c>
       <c r="J506" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="507" spans="1:10" x14ac:dyDescent="0.25">
@@ -23834,7 +23834,7 @@
         <v>114</v>
       </c>
       <c r="J507" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="508" spans="1:10" x14ac:dyDescent="0.25">
@@ -23866,7 +23866,7 @@
         <v>15</v>
       </c>
       <c r="J508" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="509" spans="1:10" x14ac:dyDescent="0.25">
@@ -23895,7 +23895,7 @@
         <v>17</v>
       </c>
       <c r="J509" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="510" spans="1:10" x14ac:dyDescent="0.25">
@@ -23927,7 +23927,7 @@
         <v>627</v>
       </c>
       <c r="J510" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="511" spans="1:10" x14ac:dyDescent="0.25">
@@ -23959,7 +23959,7 @@
         <v>194</v>
       </c>
       <c r="J511" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="512" spans="1:10" x14ac:dyDescent="0.25">
@@ -23991,7 +23991,7 @@
         <v>42</v>
       </c>
       <c r="J512" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="513" spans="1:10" x14ac:dyDescent="0.25">
@@ -24023,7 +24023,7 @@
         <v>89</v>
       </c>
       <c r="J513" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="514" spans="1:10" x14ac:dyDescent="0.25">
@@ -24055,7 +24055,7 @@
         <v>779</v>
       </c>
       <c r="J514" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="515" spans="1:10" x14ac:dyDescent="0.25">
@@ -24084,7 +24084,7 @@
         <v>611</v>
       </c>
       <c r="J515" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="516" spans="1:10" x14ac:dyDescent="0.25">
@@ -24116,7 +24116,7 @@
         <v>10</v>
       </c>
       <c r="J516" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="517" spans="1:10" x14ac:dyDescent="0.25">
@@ -24148,7 +24148,7 @@
         <v>8</v>
       </c>
       <c r="J517" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="518" spans="1:10" x14ac:dyDescent="0.25">
@@ -24177,7 +24177,7 @@
         <v>11</v>
       </c>
       <c r="J518" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="519" spans="1:10" x14ac:dyDescent="0.25">
@@ -24209,7 +24209,7 @@
         <v>33</v>
       </c>
       <c r="J519" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="520" spans="1:10" x14ac:dyDescent="0.25">
@@ -24241,7 +24241,7 @@
         <v>92</v>
       </c>
       <c r="J520" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="521" spans="1:10" x14ac:dyDescent="0.25">
@@ -24273,7 +24273,7 @@
         <v>125</v>
       </c>
       <c r="J521" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="522" spans="1:10" x14ac:dyDescent="0.25">
@@ -24305,7 +24305,7 @@
         <v>0</v>
       </c>
       <c r="J522" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="523" spans="1:10" x14ac:dyDescent="0.25">
@@ -24337,7 +24337,7 @@
         <v>105</v>
       </c>
       <c r="J523" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="524" spans="1:10" x14ac:dyDescent="0.25">
@@ -24369,7 +24369,7 @@
         <v>477</v>
       </c>
       <c r="J524" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="525" spans="1:10" x14ac:dyDescent="0.25">
@@ -24401,7 +24401,7 @@
         <v>756</v>
       </c>
       <c r="J525" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="526" spans="1:10" x14ac:dyDescent="0.25">
@@ -24433,7 +24433,7 @@
         <v>105</v>
       </c>
       <c r="J526" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="527" spans="1:10" x14ac:dyDescent="0.25">
@@ -24462,7 +24462,7 @@
         <v>461</v>
       </c>
       <c r="J527" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="528" spans="1:10" x14ac:dyDescent="0.25">
@@ -24491,7 +24491,7 @@
         <v>0</v>
       </c>
       <c r="J528" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="529" spans="1:10" x14ac:dyDescent="0.25">
@@ -24520,7 +24520,7 @@
         <v>2</v>
       </c>
       <c r="J529" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="530" spans="1:10" x14ac:dyDescent="0.25">
@@ -24552,7 +24552,7 @@
         <v>97</v>
       </c>
       <c r="J530" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="531" spans="1:10" x14ac:dyDescent="0.25">
@@ -24581,7 +24581,7 @@
         <v>241</v>
       </c>
       <c r="J531" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="532" spans="1:10" x14ac:dyDescent="0.25">
@@ -24613,7 +24613,7 @@
         <v>159</v>
       </c>
       <c r="J532" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="533" spans="1:10" x14ac:dyDescent="0.25">
@@ -24642,7 +24642,7 @@
         <v>11</v>
       </c>
       <c r="J533" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="534" spans="1:10" x14ac:dyDescent="0.25">
@@ -24671,7 +24671,7 @@
         <v>261</v>
       </c>
       <c r="J534" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="535" spans="1:10" x14ac:dyDescent="0.25">
@@ -24703,7 +24703,7 @@
         <v>0</v>
       </c>
       <c r="J535" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="536" spans="1:10" x14ac:dyDescent="0.25">
@@ -24735,7 +24735,7 @@
         <v>189</v>
       </c>
       <c r="J536" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="537" spans="1:10" x14ac:dyDescent="0.25">
@@ -24767,7 +24767,7 @@
         <v>942</v>
       </c>
       <c r="J537" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="538" spans="1:10" x14ac:dyDescent="0.25">
@@ -24799,7 +24799,7 @@
         <v>19</v>
       </c>
       <c r="J538" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="539" spans="1:10" x14ac:dyDescent="0.25">
@@ -24828,7 +24828,7 @@
         <v>36</v>
       </c>
       <c r="J539" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="540" spans="1:10" x14ac:dyDescent="0.25">
@@ -24860,7 +24860,7 @@
         <v>122</v>
       </c>
       <c r="J540" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="541" spans="1:10" x14ac:dyDescent="0.25">
@@ -24892,7 +24892,7 @@
         <v>51</v>
       </c>
       <c r="J541" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="542" spans="1:10" x14ac:dyDescent="0.25">
@@ -24924,7 +24924,7 @@
         <v>89</v>
       </c>
       <c r="J542" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="543" spans="1:10" x14ac:dyDescent="0.25">
@@ -24956,7 +24956,7 @@
         <v>36</v>
       </c>
       <c r="J543" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="544" spans="1:10" x14ac:dyDescent="0.25">
@@ -24985,7 +24985,7 @@
         <v>1306</v>
       </c>
       <c r="J544" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="545" spans="1:10" x14ac:dyDescent="0.25">
@@ -25014,7 +25014,7 @@
         <v>241</v>
       </c>
       <c r="J545" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="546" spans="1:10" x14ac:dyDescent="0.25">
@@ -25046,7 +25046,7 @@
         <v>449</v>
       </c>
       <c r="J546" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="547" spans="1:10" x14ac:dyDescent="0.25">
@@ -25075,7 +25075,7 @@
         <v>32</v>
       </c>
       <c r="J547" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="548" spans="1:10" x14ac:dyDescent="0.25">
@@ -25107,7 +25107,7 @@
         <v>61</v>
       </c>
       <c r="J548" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="549" spans="1:10" x14ac:dyDescent="0.25">
@@ -25139,7 +25139,7 @@
         <v>995</v>
       </c>
       <c r="J549" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="550" spans="1:10" x14ac:dyDescent="0.25">
@@ -25171,7 +25171,7 @@
         <v>690</v>
       </c>
       <c r="J550" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="551" spans="1:10" x14ac:dyDescent="0.25">
@@ -25200,7 +25200,7 @@
         <v>552</v>
       </c>
       <c r="J551" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="552" spans="1:10" x14ac:dyDescent="0.25">
@@ -25232,7 +25232,7 @@
         <v>19</v>
       </c>
       <c r="J552" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="553" spans="1:10" x14ac:dyDescent="0.25">
@@ -25264,7 +25264,7 @@
         <v>1742</v>
       </c>
       <c r="J553" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="554" spans="1:10" x14ac:dyDescent="0.25">
@@ -25296,7 +25296,7 @@
         <v>201</v>
       </c>
       <c r="J554" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="555" spans="1:10" x14ac:dyDescent="0.25">
@@ -25328,7 +25328,7 @@
         <v>5</v>
       </c>
       <c r="J555" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="556" spans="1:10" x14ac:dyDescent="0.25">
@@ -25360,7 +25360,7 @@
         <v>34</v>
       </c>
       <c r="J556" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="557" spans="1:10" x14ac:dyDescent="0.25">
@@ -25392,7 +25392,7 @@
         <v>278</v>
       </c>
       <c r="J557" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="558" spans="1:10" x14ac:dyDescent="0.25">
@@ -25424,7 +25424,7 @@
         <v>10</v>
       </c>
       <c r="J558" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="559" spans="1:10" x14ac:dyDescent="0.25">
@@ -25453,7 +25453,7 @@
         <v>175</v>
       </c>
       <c r="J559" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="560" spans="1:10" x14ac:dyDescent="0.25">
@@ -25485,7 +25485,7 @@
         <v>84</v>
       </c>
       <c r="J560" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="561" spans="1:10" x14ac:dyDescent="0.25">
@@ -25517,7 +25517,7 @@
         <v>10</v>
       </c>
       <c r="J561" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="562" spans="1:10" x14ac:dyDescent="0.25">
@@ -25549,7 +25549,7 @@
         <v>57</v>
       </c>
       <c r="J562" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="563" spans="1:10" x14ac:dyDescent="0.25">
@@ -25581,7 +25581,7 @@
         <v>155</v>
       </c>
       <c r="J563" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="564" spans="1:10" x14ac:dyDescent="0.25">
@@ -25613,7 +25613,7 @@
         <v>10</v>
       </c>
       <c r="J564" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="565" spans="1:10" x14ac:dyDescent="0.25">
@@ -25645,7 +25645,7 @@
         <v>552</v>
       </c>
       <c r="J565" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="566" spans="1:10" x14ac:dyDescent="0.25">
@@ -25677,7 +25677,7 @@
         <v>43</v>
       </c>
       <c r="J566" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="567" spans="1:10" x14ac:dyDescent="0.25">
@@ -25706,7 +25706,7 @@
         <v>116</v>
       </c>
       <c r="J567" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="568" spans="1:10" x14ac:dyDescent="0.25">
@@ -25738,7 +25738,7 @@
         <v>643</v>
       </c>
       <c r="J568" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="569" spans="1:10" x14ac:dyDescent="0.25">
@@ -25770,7 +25770,7 @@
         <v>440</v>
       </c>
       <c r="J569" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="570" spans="1:10" x14ac:dyDescent="0.25">
@@ -25802,7 +25802,7 @@
         <v>1789</v>
       </c>
       <c r="J570" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="571" spans="1:10" x14ac:dyDescent="0.25">
@@ -25834,7 +25834,7 @@
         <v>316</v>
       </c>
       <c r="J571" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="572" spans="1:10" x14ac:dyDescent="0.25">
@@ -25866,7 +25866,7 @@
         <v>0</v>
       </c>
       <c r="J572" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="573" spans="1:10" x14ac:dyDescent="0.25">
@@ -25898,7 +25898,7 @@
         <v>43</v>
       </c>
       <c r="J573" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="574" spans="1:10" x14ac:dyDescent="0.25">
@@ -25927,7 +25927,7 @@
         <v>129</v>
       </c>
       <c r="J574" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="575" spans="1:10" x14ac:dyDescent="0.25">
@@ -25959,7 +25959,7 @@
         <v>48</v>
       </c>
       <c r="J575" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="576" spans="1:10" x14ac:dyDescent="0.25">
@@ -25988,7 +25988,7 @@
         <v>495</v>
       </c>
       <c r="J576" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="577" spans="1:10" x14ac:dyDescent="0.25">
@@ -26017,7 +26017,7 @@
         <v>197</v>
       </c>
       <c r="J577" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="578" spans="1:10" x14ac:dyDescent="0.25">
@@ -26049,7 +26049,7 @@
         <v>89</v>
       </c>
       <c r="J578" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="579" spans="1:10" x14ac:dyDescent="0.25">
@@ -26078,7 +26078,7 @@
         <v>855</v>
       </c>
       <c r="J579" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="580" spans="1:10" x14ac:dyDescent="0.25">
@@ -26110,7 +26110,7 @@
         <v>89</v>
       </c>
       <c r="J580" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="581" spans="1:10" x14ac:dyDescent="0.25">
@@ -26139,7 +26139,7 @@
         <v>79</v>
       </c>
       <c r="J581" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="582" spans="1:10" x14ac:dyDescent="0.25">
@@ -26171,7 +26171,7 @@
         <v>143</v>
       </c>
       <c r="J582" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="583" spans="1:10" x14ac:dyDescent="0.25">
@@ -26200,7 +26200,7 @@
         <v>324</v>
       </c>
       <c r="J583" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="584" spans="1:10" x14ac:dyDescent="0.25">
@@ -26232,7 +26232,7 @@
         <v>664</v>
       </c>
       <c r="J584" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="585" spans="1:10" x14ac:dyDescent="0.25">
@@ -26264,7 +26264,7 @@
         <v>255</v>
       </c>
       <c r="J585" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="586" spans="1:10" x14ac:dyDescent="0.25">
@@ -26296,7 +26296,7 @@
         <v>454</v>
       </c>
       <c r="J586" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="587" spans="1:10" x14ac:dyDescent="0.25">
@@ -26328,7 +26328,7 @@
         <v>0</v>
       </c>
       <c r="J587" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="588" spans="1:10" x14ac:dyDescent="0.25">
@@ -26360,7 +26360,7 @@
         <v>84</v>
       </c>
       <c r="J588" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="589" spans="1:10" x14ac:dyDescent="0.25">
@@ -26392,7 +26392,7 @@
         <v>45</v>
       </c>
       <c r="J589" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="590" spans="1:10" x14ac:dyDescent="0.25">
@@ -26421,7 +26421,7 @@
         <v>224</v>
       </c>
       <c r="J590" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="591" spans="1:10" x14ac:dyDescent="0.25">
@@ -26453,7 +26453,7 @@
         <v>552</v>
       </c>
       <c r="J591" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="592" spans="1:10" x14ac:dyDescent="0.25">
@@ -26485,7 +26485,7 @@
         <v>3</v>
       </c>
       <c r="J592" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="593" spans="1:10" x14ac:dyDescent="0.25">
@@ -26517,7 +26517,7 @@
         <v>7</v>
       </c>
       <c r="J593" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="594" spans="1:10" x14ac:dyDescent="0.25">
@@ -26549,7 +26549,7 @@
         <v>317</v>
       </c>
       <c r="J594" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="595" spans="1:10" x14ac:dyDescent="0.25">
@@ -26581,7 +26581,7 @@
         <v>1752</v>
       </c>
       <c r="J595" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="596" spans="1:10" x14ac:dyDescent="0.25">
@@ -26610,7 +26610,7 @@
         <v>93</v>
       </c>
       <c r="J596" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="597" spans="1:10" x14ac:dyDescent="0.25">
@@ -26642,7 +26642,7 @@
         <v>278</v>
       </c>
       <c r="J597" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="598" spans="1:10" x14ac:dyDescent="0.25">
@@ -26674,7 +26674,7 @@
         <v>306</v>
       </c>
       <c r="J598" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="599" spans="1:10" x14ac:dyDescent="0.25">
@@ -26706,7 +26706,7 @@
         <v>0</v>
       </c>
       <c r="J599" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="600" spans="1:10" x14ac:dyDescent="0.25">
@@ -26738,7 +26738,7 @@
         <v>99</v>
       </c>
       <c r="J600" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="601" spans="1:10" x14ac:dyDescent="0.25">
@@ -26770,7 +26770,7 @@
         <v>204</v>
       </c>
       <c r="J601" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="602" spans="1:10" x14ac:dyDescent="0.25">
@@ -26802,7 +26802,7 @@
         <v>660</v>
       </c>
       <c r="J602" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="603" spans="1:10" x14ac:dyDescent="0.25">
@@ -26834,7 +26834,7 @@
         <v>0</v>
       </c>
       <c r="J603" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="604" spans="1:10" x14ac:dyDescent="0.25">
@@ -26866,7 +26866,7 @@
         <v>22</v>
       </c>
       <c r="J604" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="605" spans="1:10" x14ac:dyDescent="0.25">
@@ -26898,7 +26898,7 @@
         <v>79</v>
       </c>
       <c r="J605" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="606" spans="1:10" x14ac:dyDescent="0.25">
@@ -26930,7 +26930,7 @@
         <v>1245</v>
       </c>
       <c r="J606" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="607" spans="1:10" x14ac:dyDescent="0.25">
@@ -26959,7 +26959,7 @@
         <v>1</v>
       </c>
       <c r="J607" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="608" spans="1:10" x14ac:dyDescent="0.25">
@@ -26988,7 +26988,7 @@
         <v>71</v>
       </c>
       <c r="J608" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="609" spans="1:10" x14ac:dyDescent="0.25">
@@ -27017,7 +27017,7 @@
         <v>37</v>
       </c>
       <c r="J609" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="610" spans="1:10" x14ac:dyDescent="0.25">
@@ -27049,7 +27049,7 @@
         <v>8</v>
       </c>
       <c r="J610" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="611" spans="1:10" x14ac:dyDescent="0.25">
@@ -27081,7 +27081,7 @@
         <v>95</v>
       </c>
       <c r="J611" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="612" spans="1:10" x14ac:dyDescent="0.25">
@@ -27113,7 +27113,7 @@
         <v>1224</v>
       </c>
       <c r="J612" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="613" spans="1:10" x14ac:dyDescent="0.25">
@@ -27145,7 +27145,7 @@
         <v>206</v>
       </c>
       <c r="J613" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="614" spans="1:10" x14ac:dyDescent="0.25">
@@ -27177,7 +27177,7 @@
         <v>308</v>
       </c>
       <c r="J614" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="615" spans="1:10" x14ac:dyDescent="0.25">
@@ -27206,7 +27206,7 @@
         <v>3</v>
       </c>
       <c r="J615" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="616" spans="1:10" x14ac:dyDescent="0.25">
@@ -27235,7 +27235,7 @@
         <v>207</v>
       </c>
       <c r="J616" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="617" spans="1:10" x14ac:dyDescent="0.25">
@@ -27264,7 +27264,7 @@
         <v>160</v>
       </c>
       <c r="J617" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="618" spans="1:10" x14ac:dyDescent="0.25">
@@ -27293,7 +27293,7 @@
         <v>614</v>
       </c>
       <c r="J618" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="619" spans="1:10" x14ac:dyDescent="0.25">
@@ -27322,7 +27322,7 @@
         <v>2</v>
       </c>
       <c r="J619" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="620" spans="1:10" x14ac:dyDescent="0.25">
@@ -27354,7 +27354,7 @@
         <v>167</v>
       </c>
       <c r="J620" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="621" spans="1:10" x14ac:dyDescent="0.25">
@@ -27386,7 +27386,7 @@
         <v>289</v>
       </c>
       <c r="J621" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="622" spans="1:10" x14ac:dyDescent="0.25">
@@ -27418,7 +27418,7 @@
         <v>143</v>
       </c>
       <c r="J622" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="623" spans="1:10" x14ac:dyDescent="0.25">
@@ -27447,7 +27447,7 @@
         <v>52</v>
       </c>
       <c r="J623" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="624" spans="1:10" x14ac:dyDescent="0.25">
@@ -27479,7 +27479,7 @@
         <v>107</v>
       </c>
       <c r="J624" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="625" spans="1:10" x14ac:dyDescent="0.25">
@@ -27508,7 +27508,7 @@
         <v>513</v>
       </c>
       <c r="J625" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="626" spans="1:10" x14ac:dyDescent="0.25">
@@ -27540,7 +27540,7 @@
         <v>204</v>
       </c>
       <c r="J626" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="627" spans="1:10" x14ac:dyDescent="0.25">
@@ -27569,7 +27569,7 @@
         <v>48</v>
       </c>
       <c r="J627" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="628" spans="1:10" x14ac:dyDescent="0.25">
@@ -27598,7 +27598,7 @@
         <v>144</v>
       </c>
       <c r="J628" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="629" spans="1:10" x14ac:dyDescent="0.25">
@@ -27630,7 +27630,7 @@
         <v>916</v>
       </c>
       <c r="J629" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="630" spans="1:10" x14ac:dyDescent="0.25">
@@ -27662,7 +27662,7 @@
         <v>497</v>
       </c>
       <c r="J630" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="631" spans="1:10" x14ac:dyDescent="0.25">
@@ -27694,7 +27694,7 @@
         <v>1530</v>
       </c>
       <c r="J631" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="632" spans="1:10" x14ac:dyDescent="0.25">
@@ -27723,7 +27723,7 @@
         <v>76</v>
       </c>
       <c r="J632" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="633" spans="1:10" x14ac:dyDescent="0.25">
@@ -27755,7 +27755,7 @@
         <v>159</v>
       </c>
       <c r="J633" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="634" spans="1:10" x14ac:dyDescent="0.25">
@@ -27787,7 +27787,7 @@
         <v>85</v>
       </c>
       <c r="J634" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="635" spans="1:10" x14ac:dyDescent="0.25">
@@ -27819,7 +27819,7 @@
         <v>552</v>
       </c>
       <c r="J635" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="636" spans="1:10" x14ac:dyDescent="0.25">
@@ -27851,7 +27851,7 @@
         <v>175</v>
       </c>
       <c r="J636" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="637" spans="1:10" x14ac:dyDescent="0.25">
@@ -27883,7 +27883,7 @@
         <v>0</v>
       </c>
       <c r="J637" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="638" spans="1:10" x14ac:dyDescent="0.25">
@@ -27912,7 +27912,7 @@
         <v>13</v>
       </c>
       <c r="J638" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="639" spans="1:10" x14ac:dyDescent="0.25">
@@ -27941,7 +27941,7 @@
         <v>313</v>
       </c>
       <c r="J639" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="640" spans="1:10" x14ac:dyDescent="0.25">
@@ -27973,7 +27973,7 @@
         <v>357</v>
       </c>
       <c r="J640" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="641" spans="1:10" x14ac:dyDescent="0.25">
@@ -28002,7 +28002,7 @@
         <v>362</v>
       </c>
       <c r="J641" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="642" spans="1:10" x14ac:dyDescent="0.25">
@@ -28034,7 +28034,7 @@
         <v>171</v>
       </c>
       <c r="J642" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="643" spans="1:10" x14ac:dyDescent="0.25">
@@ -28066,7 +28066,7 @@
         <v>852</v>
       </c>
       <c r="J643" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="644" spans="1:10" x14ac:dyDescent="0.25">
@@ -28098,7 +28098,7 @@
         <v>0</v>
       </c>
       <c r="J644" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="645" spans="1:10" x14ac:dyDescent="0.25">
@@ -28130,7 +28130,7 @@
         <v>1171</v>
       </c>
       <c r="J645" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="646" spans="1:10" x14ac:dyDescent="0.25">
@@ -28162,7 +28162,7 @@
         <v>35</v>
       </c>
       <c r="J646" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="647" spans="1:10" x14ac:dyDescent="0.25">
@@ -28191,7 +28191,7 @@
         <v>0</v>
       </c>
       <c r="J647" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="648" spans="1:10" x14ac:dyDescent="0.25">
@@ -28223,7 +28223,7 @@
         <v>476</v>
       </c>
       <c r="J648" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="649" spans="1:10" x14ac:dyDescent="0.25">
@@ -28255,7 +28255,7 @@
         <v>9</v>
       </c>
       <c r="J649" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="650" spans="1:10" x14ac:dyDescent="0.25">
@@ -28284,7 +28284,7 @@
         <v>289</v>
       </c>
       <c r="J650" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="651" spans="1:10" x14ac:dyDescent="0.25">
@@ -28316,7 +28316,7 @@
         <v>915</v>
       </c>
       <c r="J651" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="652" spans="1:10" x14ac:dyDescent="0.25">
@@ -28345,7 +28345,7 @@
         <v>53</v>
       </c>
       <c r="J652" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="653" spans="1:10" x14ac:dyDescent="0.25">
@@ -28377,7 +28377,7 @@
         <v>343</v>
       </c>
       <c r="J653" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="654" spans="1:10" x14ac:dyDescent="0.25">
@@ -28409,7 +28409,7 @@
         <v>132</v>
       </c>
       <c r="J654" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="655" spans="1:10" x14ac:dyDescent="0.25">
@@ -28441,7 +28441,7 @@
         <v>20</v>
       </c>
       <c r="J655" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="656" spans="1:10" x14ac:dyDescent="0.25">
@@ -28473,7 +28473,7 @@
         <v>688</v>
       </c>
       <c r="J656" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="657" spans="1:10" x14ac:dyDescent="0.25">
@@ -28505,7 +28505,7 @@
         <v>2</v>
       </c>
       <c r="J657" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="658" spans="1:10" x14ac:dyDescent="0.25">
@@ -28534,7 +28534,7 @@
         <v>241</v>
       </c>
       <c r="J658" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="659" spans="1:10" x14ac:dyDescent="0.25">
@@ -28566,7 +28566,7 @@
         <v>317</v>
       </c>
       <c r="J659" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="660" spans="1:10" x14ac:dyDescent="0.25">
@@ -28595,7 +28595,7 @@
         <v>118</v>
       </c>
       <c r="J660" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="661" spans="1:10" x14ac:dyDescent="0.25">
@@ -28627,7 +28627,7 @@
         <v>0</v>
       </c>
       <c r="J661" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="662" spans="1:10" x14ac:dyDescent="0.25">
@@ -28659,7 +28659,7 @@
         <v>331</v>
       </c>
       <c r="J662" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="663" spans="1:10" x14ac:dyDescent="0.25">
@@ -28688,7 +28688,7 @@
         <v>123</v>
       </c>
       <c r="J663" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="664" spans="1:10" x14ac:dyDescent="0.25">
@@ -28720,7 +28720,7 @@
         <v>723</v>
       </c>
       <c r="J664" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="665" spans="1:10" x14ac:dyDescent="0.25">
@@ -28752,7 +28752,7 @@
         <v>645</v>
       </c>
       <c r="J665" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="666" spans="1:10" x14ac:dyDescent="0.25">
@@ -28784,7 +28784,7 @@
         <v>760</v>
       </c>
       <c r="J666" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="667" spans="1:10" x14ac:dyDescent="0.25">
@@ -28816,7 +28816,7 @@
         <v>797</v>
       </c>
       <c r="J667" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="668" spans="1:10" x14ac:dyDescent="0.25">
@@ -28845,7 +28845,7 @@
         <v>5</v>
       </c>
       <c r="J668" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="669" spans="1:10" x14ac:dyDescent="0.25">
@@ -28877,7 +28877,7 @@
         <v>1236</v>
       </c>
       <c r="J669" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="670" spans="1:10" x14ac:dyDescent="0.25">
@@ -28909,7 +28909,7 @@
         <v>48</v>
       </c>
       <c r="J670" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="671" spans="1:10" x14ac:dyDescent="0.25">
@@ -28938,7 +28938,7 @@
         <v>104</v>
       </c>
       <c r="J671" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="672" spans="1:10" x14ac:dyDescent="0.25">
@@ -28970,7 +28970,7 @@
         <v>1448</v>
       </c>
       <c r="J672" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="673" spans="1:10" x14ac:dyDescent="0.25">
@@ -29002,7 +29002,7 @@
         <v>0</v>
       </c>
       <c r="J673" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="674" spans="1:10" x14ac:dyDescent="0.25">
@@ -29034,7 +29034,7 @@
         <v>235</v>
       </c>
       <c r="J674" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="675" spans="1:10" x14ac:dyDescent="0.25">
@@ -29066,7 +29066,7 @@
         <v>204</v>
       </c>
       <c r="J675" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="676" spans="1:10" x14ac:dyDescent="0.25">
@@ -29098,7 +29098,7 @@
         <v>407</v>
       </c>
       <c r="J676" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="677" spans="1:10" x14ac:dyDescent="0.25">
@@ -29127,7 +29127,7 @@
         <v>0</v>
       </c>
       <c r="J677" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="678" spans="1:10" x14ac:dyDescent="0.25">
@@ -29159,7 +29159,7 @@
         <v>199</v>
       </c>
       <c r="J678" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="679" spans="1:10" x14ac:dyDescent="0.25">
@@ -29188,7 +29188,7 @@
         <v>592</v>
       </c>
       <c r="J679" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="680" spans="1:10" x14ac:dyDescent="0.25">
@@ -29217,7 +29217,7 @@
         <v>895</v>
       </c>
       <c r="J680" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="681" spans="1:10" x14ac:dyDescent="0.25">
@@ -29249,7 +29249,7 @@
         <v>312</v>
       </c>
       <c r="J681" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="682" spans="1:10" x14ac:dyDescent="0.25">
@@ -29278,7 +29278,7 @@
         <v>28</v>
       </c>
       <c r="J682" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="683" spans="1:10" x14ac:dyDescent="0.25">
@@ -29310,7 +29310,7 @@
         <v>132</v>
       </c>
       <c r="J683" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="684" spans="1:10" x14ac:dyDescent="0.25">
@@ -29339,7 +29339,7 @@
         <v>2</v>
       </c>
       <c r="J684" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="685" spans="1:10" x14ac:dyDescent="0.25">
@@ -29371,7 +29371,7 @@
         <v>0</v>
       </c>
       <c r="J685" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="686" spans="1:10" x14ac:dyDescent="0.25">
@@ -29400,7 +29400,7 @@
         <v>942</v>
       </c>
       <c r="J686" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="687" spans="1:10" x14ac:dyDescent="0.25">
@@ -29432,7 +29432,7 @@
         <v>495</v>
       </c>
       <c r="J687" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="688" spans="1:10" x14ac:dyDescent="0.25">
@@ -29464,7 +29464,7 @@
         <v>590</v>
       </c>
       <c r="J688" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="689" spans="1:10" x14ac:dyDescent="0.25">
@@ -29496,7 +29496,7 @@
         <v>84</v>
       </c>
       <c r="J689" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="690" spans="1:10" x14ac:dyDescent="0.25">
@@ -29528,7 +29528,7 @@
         <v>335</v>
       </c>
       <c r="J690" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="691" spans="1:10" x14ac:dyDescent="0.25">
@@ -29560,7 +29560,7 @@
         <v>2</v>
       </c>
       <c r="J691" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="692" spans="1:10" x14ac:dyDescent="0.25">
@@ -29589,7 +29589,7 @@
         <v>883</v>
       </c>
       <c r="J692" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="693" spans="1:10" x14ac:dyDescent="0.25">
@@ -29621,7 +29621,7 @@
         <v>861</v>
       </c>
       <c r="J693" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="694" spans="1:10" x14ac:dyDescent="0.25">
@@ -29653,7 +29653,7 @@
         <v>35</v>
       </c>
       <c r="J694" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="695" spans="1:10" x14ac:dyDescent="0.25">
@@ -29685,7 +29685,7 @@
         <v>409</v>
       </c>
       <c r="J695" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="696" spans="1:10" x14ac:dyDescent="0.25">
@@ -29717,7 +29717,7 @@
         <v>544</v>
       </c>
       <c r="J696" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="697" spans="1:10" x14ac:dyDescent="0.25">
@@ -29749,7 +29749,7 @@
         <v>818</v>
       </c>
       <c r="J697" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="698" spans="1:10" x14ac:dyDescent="0.25">
@@ -29781,7 +29781,7 @@
         <v>9</v>
       </c>
       <c r="J698" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="699" spans="1:10" x14ac:dyDescent="0.25">
@@ -29810,7 +29810,7 @@
         <v>4</v>
       </c>
       <c r="J699" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="700" spans="1:10" x14ac:dyDescent="0.25">
@@ -29839,7 +29839,7 @@
         <v>264</v>
       </c>
       <c r="J700" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="701" spans="1:10" x14ac:dyDescent="0.25">
@@ -29868,7 +29868,7 @@
         <v>2</v>
       </c>
       <c r="J701" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="702" spans="1:10" x14ac:dyDescent="0.25">
@@ -29900,7 +29900,7 @@
         <v>0</v>
       </c>
       <c r="J702" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="703" spans="1:10" x14ac:dyDescent="0.25">
@@ -29929,7 +29929,7 @@
         <v>46</v>
       </c>
       <c r="J703" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="704" spans="1:10" x14ac:dyDescent="0.25">
@@ -29961,7 +29961,7 @@
         <v>90</v>
       </c>
       <c r="J704" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="705" spans="1:10" x14ac:dyDescent="0.25">
@@ -29993,7 +29993,7 @@
         <v>1718</v>
       </c>
       <c r="J705" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="706" spans="1:10" x14ac:dyDescent="0.25">
@@ -30025,7 +30025,7 @@
         <v>650</v>
       </c>
       <c r="J706" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="707" spans="1:10" x14ac:dyDescent="0.25">
@@ -30054,7 +30054,7 @@
         <v>3</v>
       </c>
       <c r="J707" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="708" spans="1:10" x14ac:dyDescent="0.25">
@@ -30083,7 +30083,7 @@
         <v>626</v>
       </c>
       <c r="J708" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="709" spans="1:10" x14ac:dyDescent="0.25">
@@ -30115,7 +30115,7 @@
         <v>0</v>
       </c>
       <c r="J709" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="710" spans="1:10" x14ac:dyDescent="0.25">
@@ -30147,7 +30147,7 @@
         <v>18</v>
       </c>
       <c r="J710" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="711" spans="1:10" x14ac:dyDescent="0.25">
@@ -30179,7 +30179,7 @@
         <v>0</v>
       </c>
       <c r="J711" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="712" spans="1:10" x14ac:dyDescent="0.25">
@@ -30211,7 +30211,7 @@
         <v>392</v>
       </c>
       <c r="J712" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="713" spans="1:10" x14ac:dyDescent="0.25">
@@ -30243,7 +30243,7 @@
         <v>41</v>
       </c>
       <c r="J713" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="714" spans="1:10" x14ac:dyDescent="0.25">
@@ -30275,7 +30275,7 @@
         <v>204</v>
       </c>
       <c r="J714" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="715" spans="1:10" x14ac:dyDescent="0.25">
@@ -30307,7 +30307,7 @@
         <v>740</v>
       </c>
       <c r="J715" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="716" spans="1:10" x14ac:dyDescent="0.25">
@@ -30339,7 +30339,7 @@
         <v>325</v>
       </c>
       <c r="J716" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="717" spans="1:10" x14ac:dyDescent="0.25">
@@ -30371,7 +30371,7 @@
         <v>177</v>
       </c>
       <c r="J717" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="718" spans="1:10" x14ac:dyDescent="0.25">
@@ -30403,7 +30403,7 @@
         <v>79</v>
       </c>
       <c r="J718" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="719" spans="1:10" x14ac:dyDescent="0.25">
@@ -30435,7 +30435,7 @@
         <v>240</v>
       </c>
       <c r="J719" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="720" spans="1:10" x14ac:dyDescent="0.25">
@@ -30464,7 +30464,7 @@
         <v>9</v>
       </c>
       <c r="J720" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="721" spans="1:10" x14ac:dyDescent="0.25">
@@ -30496,7 +30496,7 @@
         <v>38</v>
       </c>
       <c r="J721" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="722" spans="1:10" x14ac:dyDescent="0.25">
@@ -30528,7 +30528,7 @@
         <v>71</v>
       </c>
       <c r="J722" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="723" spans="1:10" x14ac:dyDescent="0.25">
@@ -30560,7 +30560,7 @@
         <v>321</v>
       </c>
       <c r="J723" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="724" spans="1:10" x14ac:dyDescent="0.25">
@@ -30589,7 +30589,7 @@
         <v>56</v>
       </c>
       <c r="J724" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="725" spans="1:10" x14ac:dyDescent="0.25">
@@ -30618,7 +30618,7 @@
         <v>12</v>
       </c>
       <c r="J725" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="726" spans="1:10" x14ac:dyDescent="0.25">
@@ -30647,7 +30647,7 @@
         <v>495</v>
       </c>
       <c r="J726" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="727" spans="1:10" x14ac:dyDescent="0.25">
@@ -30679,7 +30679,7 @@
         <v>429</v>
       </c>
       <c r="J727" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="728" spans="1:10" x14ac:dyDescent="0.25">
@@ -30711,7 +30711,7 @@
         <v>316</v>
       </c>
       <c r="J728" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="729" spans="1:10" x14ac:dyDescent="0.25">
@@ -30743,7 +30743,7 @@
         <v>3</v>
       </c>
       <c r="J729" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="730" spans="1:10" x14ac:dyDescent="0.25">
@@ -30775,7 +30775,7 @@
         <v>0</v>
       </c>
       <c r="J730" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="731" spans="1:10" x14ac:dyDescent="0.25">
@@ -30807,7 +30807,7 @@
         <v>25</v>
       </c>
       <c r="J731" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="732" spans="1:10" x14ac:dyDescent="0.25">
@@ -30836,7 +30836,7 @@
         <v>528</v>
       </c>
       <c r="J732" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="733" spans="1:10" x14ac:dyDescent="0.25">
@@ -30865,7 +30865,7 @@
         <v>202</v>
       </c>
       <c r="J733" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="734" spans="1:10" x14ac:dyDescent="0.25">
@@ -30897,7 +30897,7 @@
         <v>555</v>
       </c>
       <c r="J734" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="735" spans="1:10" x14ac:dyDescent="0.25">
@@ -30929,7 +30929,7 @@
         <v>18</v>
       </c>
       <c r="J735" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="736" spans="1:10" x14ac:dyDescent="0.25">
@@ -30961,7 +30961,7 @@
         <v>17</v>
       </c>
       <c r="J736" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="737" spans="1:10" x14ac:dyDescent="0.25">
@@ -30993,7 +30993,7 @@
         <v>433</v>
       </c>
       <c r="J737" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="738" spans="1:10" x14ac:dyDescent="0.25">
@@ -31025,7 +31025,7 @@
         <v>615</v>
       </c>
       <c r="J738" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="739" spans="1:10" x14ac:dyDescent="0.25">
@@ -31054,7 +31054,7 @@
         <v>11</v>
       </c>
       <c r="J739" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="740" spans="1:10" x14ac:dyDescent="0.25">
@@ -31086,7 +31086,7 @@
         <v>249</v>
       </c>
       <c r="J740" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="741" spans="1:10" x14ac:dyDescent="0.25">
@@ -31118,7 +31118,7 @@
         <v>302</v>
       </c>
       <c r="J741" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="742" spans="1:10" x14ac:dyDescent="0.25">
@@ -31147,7 +31147,7 @@
         <v>0</v>
       </c>
       <c r="J742" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="743" spans="1:10" x14ac:dyDescent="0.25">
@@ -31179,7 +31179,7 @@
         <v>673</v>
       </c>
       <c r="J743" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="744" spans="1:10" x14ac:dyDescent="0.25">
@@ -31208,7 +31208,7 @@
         <v>449</v>
       </c>
       <c r="J744" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="745" spans="1:10" x14ac:dyDescent="0.25">
@@ -31237,7 +31237,7 @@
         <v>250</v>
       </c>
       <c r="J745" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="746" spans="1:10" x14ac:dyDescent="0.25">
@@ -31269,7 +31269,7 @@
         <v>0</v>
       </c>
       <c r="J746" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="747" spans="1:10" x14ac:dyDescent="0.25">
@@ -31301,7 +31301,7 @@
         <v>121</v>
       </c>
       <c r="J747" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="748" spans="1:10" x14ac:dyDescent="0.25">
@@ -31333,7 +31333,7 @@
         <v>43</v>
       </c>
       <c r="J748" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="749" spans="1:10" x14ac:dyDescent="0.25">
@@ -31365,7 +31365,7 @@
         <v>82</v>
       </c>
       <c r="J749" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="750" spans="1:10" x14ac:dyDescent="0.25">
@@ -31394,7 +31394,7 @@
         <v>21</v>
       </c>
       <c r="J750" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="751" spans="1:10" x14ac:dyDescent="0.25">
@@ -31426,7 +31426,7 @@
         <v>273</v>
       </c>
       <c r="J751" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="752" spans="1:10" x14ac:dyDescent="0.25">
@@ -31458,7 +31458,7 @@
         <v>231</v>
       </c>
       <c r="J752" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="753" spans="1:10" x14ac:dyDescent="0.25">
@@ -31490,7 +31490,7 @@
         <v>600</v>
       </c>
       <c r="J753" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="754" spans="1:10" x14ac:dyDescent="0.25">
@@ -31519,7 +31519,7 @@
         <v>4</v>
       </c>
       <c r="J754" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="755" spans="1:10" x14ac:dyDescent="0.25">
@@ -31551,7 +31551,7 @@
         <v>555</v>
       </c>
       <c r="J755" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="756" spans="1:10" x14ac:dyDescent="0.25">
@@ -31583,7 +31583,7 @@
         <v>7</v>
       </c>
       <c r="J756" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="757" spans="1:10" x14ac:dyDescent="0.25">
@@ -31615,7 +31615,7 @@
         <v>0</v>
       </c>
       <c r="J757" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="758" spans="1:10" x14ac:dyDescent="0.25">
@@ -31644,7 +31644,7 @@
         <v>488</v>
       </c>
       <c r="J758" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="759" spans="1:10" x14ac:dyDescent="0.25">
@@ -31676,7 +31676,7 @@
         <v>84</v>
       </c>
       <c r="J759" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="760" spans="1:10" x14ac:dyDescent="0.25">
@@ -31708,7 +31708,7 @@
         <v>620</v>
       </c>
       <c r="J760" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="761" spans="1:10" x14ac:dyDescent="0.25">
@@ -31740,7 +31740,7 @@
         <v>264</v>
       </c>
       <c r="J761" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="762" spans="1:10" x14ac:dyDescent="0.25">
@@ -31772,7 +31772,7 @@
         <v>662</v>
       </c>
       <c r="J762" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="763" spans="1:10" x14ac:dyDescent="0.25">
@@ -31804,7 +31804,7 @@
         <v>121</v>
       </c>
       <c r="J763" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="764" spans="1:10" x14ac:dyDescent="0.25">
@@ -31833,7 +31833,7 @@
         <v>4</v>
       </c>
       <c r="J764" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="765" spans="1:10" x14ac:dyDescent="0.25">
@@ -31865,7 +31865,7 @@
         <v>52</v>
       </c>
       <c r="J765" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="766" spans="1:10" x14ac:dyDescent="0.25">
@@ -31897,7 +31897,7 @@
         <v>20</v>
       </c>
       <c r="J766" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="767" spans="1:10" x14ac:dyDescent="0.25">
@@ -31929,7 +31929,7 @@
         <v>0</v>
       </c>
       <c r="J767" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="768" spans="1:10" x14ac:dyDescent="0.25">
@@ -31961,7 +31961,7 @@
         <v>60</v>
       </c>
       <c r="J768" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="769" spans="1:10" x14ac:dyDescent="0.25">
@@ -31990,7 +31990,7 @@
         <v>23</v>
       </c>
       <c r="J769" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="770" spans="1:10" x14ac:dyDescent="0.25">
@@ -32022,7 +32022,7 @@
         <v>204</v>
       </c>
       <c r="J770" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="771" spans="1:10" x14ac:dyDescent="0.25">
@@ -32054,7 +32054,7 @@
         <v>13</v>
       </c>
       <c r="J771" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="772" spans="1:10" x14ac:dyDescent="0.25">
@@ -32086,7 +32086,7 @@
         <v>57</v>
       </c>
       <c r="J772" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="773" spans="1:10" x14ac:dyDescent="0.25">
@@ -32115,7 +32115,7 @@
         <v>552</v>
       </c>
       <c r="J773" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="774" spans="1:10" x14ac:dyDescent="0.25">
@@ -32147,7 +32147,7 @@
         <v>312</v>
       </c>
       <c r="J774" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="775" spans="1:10" x14ac:dyDescent="0.25">
@@ -32176,7 +32176,7 @@
         <v>12</v>
       </c>
       <c r="J775" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="776" spans="1:10" x14ac:dyDescent="0.25">
@@ -32208,7 +32208,7 @@
         <v>204</v>
       </c>
       <c r="J776" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="777" spans="1:10" x14ac:dyDescent="0.25">
@@ -32240,7 +32240,7 @@
         <v>36</v>
       </c>
       <c r="J777" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="778" spans="1:10" x14ac:dyDescent="0.25">
@@ -32272,7 +32272,7 @@
         <v>1632</v>
       </c>
       <c r="J778" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="779" spans="1:10" x14ac:dyDescent="0.25">
@@ -32301,7 +32301,7 @@
         <v>1</v>
       </c>
       <c r="J779" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="780" spans="1:10" x14ac:dyDescent="0.25">
@@ -32330,7 +32330,7 @@
         <v>464</v>
       </c>
       <c r="J780" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="781" spans="1:10" x14ac:dyDescent="0.25">
@@ -32362,7 +32362,7 @@
         <v>995</v>
       </c>
       <c r="J781" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="782" spans="1:10" x14ac:dyDescent="0.25">
@@ -32394,7 +32394,7 @@
         <v>778</v>
       </c>
       <c r="J782" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="783" spans="1:10" x14ac:dyDescent="0.25">
@@ -32423,7 +32423,7 @@
         <v>4</v>
       </c>
       <c r="J783" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="784" spans="1:10" x14ac:dyDescent="0.25">
@@ -32455,7 +32455,7 @@
         <v>89</v>
       </c>
       <c r="J784" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="785" spans="1:10" x14ac:dyDescent="0.25">
@@ -32484,7 +32484,7 @@
         <v>148</v>
       </c>
       <c r="J785" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="786" spans="1:10" x14ac:dyDescent="0.25">
@@ -32513,7 +32513,7 @@
         <v>752</v>
       </c>
       <c r="J786" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="787" spans="1:10" x14ac:dyDescent="0.25">
@@ -32542,7 +32542,7 @@
         <v>120</v>
       </c>
       <c r="J787" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="788" spans="1:10" x14ac:dyDescent="0.25">
@@ -32571,7 +32571,7 @@
         <v>390</v>
       </c>
       <c r="J788" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="789" spans="1:10" x14ac:dyDescent="0.25">
@@ -32603,7 +32603,7 @@
         <v>129</v>
       </c>
       <c r="J789" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="790" spans="1:10" x14ac:dyDescent="0.25">
@@ -32635,7 +32635,7 @@
         <v>208</v>
       </c>
       <c r="J790" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="791" spans="1:10" x14ac:dyDescent="0.25">
@@ -32667,7 +32667,7 @@
         <v>0</v>
       </c>
       <c r="J791" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="792" spans="1:10" x14ac:dyDescent="0.25">
@@ -32699,7 +32699,7 @@
         <v>439</v>
       </c>
       <c r="J792" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="793" spans="1:10" x14ac:dyDescent="0.25">
@@ -32731,7 +32731,7 @@
         <v>714</v>
       </c>
       <c r="J793" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="794" spans="1:10" x14ac:dyDescent="0.25">
@@ -32763,7 +32763,7 @@
         <v>923</v>
       </c>
       <c r="J794" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="795" spans="1:10" x14ac:dyDescent="0.25">
@@ -32795,7 +32795,7 @@
         <v>17</v>
       </c>
       <c r="J795" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="796" spans="1:10" x14ac:dyDescent="0.25">
@@ -32827,7 +32827,7 @@
         <v>2</v>
       </c>
       <c r="J796" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="797" spans="1:10" x14ac:dyDescent="0.25">
@@ -32859,7 +32859,7 @@
         <v>340</v>
       </c>
       <c r="J797" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="798" spans="1:10" x14ac:dyDescent="0.25">
@@ -32891,7 +32891,7 @@
         <v>111</v>
       </c>
       <c r="J798" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="799" spans="1:10" x14ac:dyDescent="0.25">
@@ -32923,7 +32923,7 @@
         <v>0</v>
       </c>
       <c r="J799" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="800" spans="1:10" x14ac:dyDescent="0.25">
@@ -32955,7 +32955,7 @@
         <v>574</v>
       </c>
       <c r="J800" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="801" spans="1:10" x14ac:dyDescent="0.25">
@@ -32987,7 +32987,7 @@
         <v>723</v>
       </c>
       <c r="J801" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="802" spans="1:10" x14ac:dyDescent="0.25">
@@ -33019,7 +33019,7 @@
         <v>430</v>
       </c>
       <c r="J802" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="803" spans="1:10" x14ac:dyDescent="0.25">
@@ -33051,7 +33051,7 @@
         <v>442</v>
       </c>
       <c r="J803" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="804" spans="1:10" x14ac:dyDescent="0.25">
@@ -33080,7 +33080,7 @@
         <v>429</v>
       </c>
       <c r="J804" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="805" spans="1:10" x14ac:dyDescent="0.25">
@@ -33112,7 +33112,7 @@
         <v>42</v>
       </c>
       <c r="J805" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="806" spans="1:10" x14ac:dyDescent="0.25">
@@ -33144,7 +33144,7 @@
         <v>351</v>
       </c>
       <c r="J806" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="807" spans="1:10" x14ac:dyDescent="0.25">
@@ -33173,7 +33173,7 @@
         <v>48</v>
       </c>
       <c r="J807" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="808" spans="1:10" x14ac:dyDescent="0.25">
@@ -33202,7 +33202,7 @@
         <v>130</v>
       </c>
       <c r="J808" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="809" spans="1:10" x14ac:dyDescent="0.25">
@@ -33231,7 +33231,7 @@
         <v>264</v>
       </c>
       <c r="J809" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="810" spans="1:10" x14ac:dyDescent="0.25">
@@ -33263,7 +33263,7 @@
         <v>253</v>
       </c>
       <c r="J810" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="811" spans="1:10" x14ac:dyDescent="0.25">
@@ -33295,7 +33295,7 @@
         <v>170</v>
       </c>
       <c r="J811" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="812" spans="1:10" x14ac:dyDescent="0.25">
@@ -33324,7 +33324,7 @@
         <v>0</v>
       </c>
       <c r="J812" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="813" spans="1:10" x14ac:dyDescent="0.25">
@@ -33353,7 +33353,7 @@
         <v>522</v>
       </c>
       <c r="J813" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="814" spans="1:10" x14ac:dyDescent="0.25">
@@ -33385,7 +33385,7 @@
         <v>625</v>
       </c>
       <c r="J814" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="815" spans="1:10" x14ac:dyDescent="0.25">
@@ -33414,7 +33414,7 @@
         <v>156</v>
       </c>
       <c r="J815" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="816" spans="1:10" x14ac:dyDescent="0.25">
@@ -33443,7 +33443,7 @@
         <v>905</v>
       </c>
       <c r="J816" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="817" spans="1:10" x14ac:dyDescent="0.25">
@@ -33475,7 +33475,7 @@
         <v>48</v>
       </c>
       <c r="J817" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="818" spans="1:10" x14ac:dyDescent="0.25">
@@ -33507,7 +33507,7 @@
         <v>219</v>
       </c>
       <c r="J818" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="819" spans="1:10" x14ac:dyDescent="0.25">
@@ -33539,7 +33539,7 @@
         <v>78</v>
       </c>
       <c r="J819" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="820" spans="1:10" x14ac:dyDescent="0.25">
@@ -33568,7 +33568,7 @@
         <v>4</v>
       </c>
       <c r="J820" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="821" spans="1:10" x14ac:dyDescent="0.25">
@@ -33600,7 +33600,7 @@
         <v>18</v>
       </c>
       <c r="J821" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="822" spans="1:10" x14ac:dyDescent="0.25">
@@ -33632,7 +33632,7 @@
         <v>14</v>
       </c>
       <c r="J822" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="823" spans="1:10" x14ac:dyDescent="0.25">
@@ -33664,7 +33664,7 @@
         <v>184</v>
       </c>
       <c r="J823" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="824" spans="1:10" x14ac:dyDescent="0.25">
@@ -33696,7 +33696,7 @@
         <v>175</v>
       </c>
       <c r="J824" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="825" spans="1:10" x14ac:dyDescent="0.25">
@@ -33728,7 +33728,7 @@
         <v>741</v>
       </c>
       <c r="J825" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="826" spans="1:10" x14ac:dyDescent="0.25">
@@ -33760,7 +33760,7 @@
         <v>17</v>
       </c>
       <c r="J826" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="827" spans="1:10" x14ac:dyDescent="0.25">
@@ -33792,7 +33792,7 @@
         <v>90</v>
       </c>
       <c r="J827" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="828" spans="1:10" x14ac:dyDescent="0.25">
@@ -33821,7 +33821,7 @@
         <v>53</v>
       </c>
       <c r="J828" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="829" spans="1:10" x14ac:dyDescent="0.25">
@@ -33853,7 +33853,7 @@
         <v>161</v>
       </c>
       <c r="J829" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="830" spans="1:10" x14ac:dyDescent="0.25">
@@ -33882,7 +33882,7 @@
         <v>120</v>
       </c>
       <c r="J830" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="831" spans="1:10" x14ac:dyDescent="0.25">
@@ -33911,7 +33911,7 @@
         <v>390</v>
       </c>
       <c r="J831" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="832" spans="1:10" x14ac:dyDescent="0.25">
@@ -33943,7 +33943,7 @@
         <v>129</v>
       </c>
       <c r="J832" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="833" spans="1:10" x14ac:dyDescent="0.25">
@@ -33975,7 +33975,7 @@
         <v>208</v>
       </c>
       <c r="J833" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="834" spans="1:10" x14ac:dyDescent="0.25">
@@ -34007,7 +34007,7 @@
         <v>0</v>
       </c>
       <c r="J834" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="835" spans="1:10" x14ac:dyDescent="0.25">
@@ -34039,7 +34039,7 @@
         <v>439</v>
       </c>
       <c r="J835" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="836" spans="1:10" x14ac:dyDescent="0.25">
@@ -34071,7 +34071,7 @@
         <v>714</v>
       </c>
       <c r="J836" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="837" spans="1:10" x14ac:dyDescent="0.25">
@@ -34103,7 +34103,7 @@
         <v>923</v>
       </c>
       <c r="J837" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="838" spans="1:10" x14ac:dyDescent="0.25">
@@ -34135,7 +34135,7 @@
         <v>2</v>
       </c>
       <c r="J838" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="839" spans="1:10" x14ac:dyDescent="0.25">
@@ -34167,7 +34167,7 @@
         <v>340</v>
       </c>
       <c r="J839" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="840" spans="1:10" x14ac:dyDescent="0.25">
@@ -34199,7 +34199,7 @@
         <v>111</v>
       </c>
       <c r="J840" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="841" spans="1:10" x14ac:dyDescent="0.25">
@@ -34231,7 +34231,7 @@
         <v>0</v>
       </c>
       <c r="J841" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="842" spans="1:10" x14ac:dyDescent="0.25">
@@ -34263,7 +34263,7 @@
         <v>574</v>
       </c>
       <c r="J842" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="843" spans="1:10" x14ac:dyDescent="0.25">
@@ -34295,7 +34295,7 @@
         <v>723</v>
       </c>
       <c r="J843" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="844" spans="1:10" x14ac:dyDescent="0.25">
@@ -34327,7 +34327,7 @@
         <v>430</v>
       </c>
       <c r="J844" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="845" spans="1:10" x14ac:dyDescent="0.25">
@@ -34359,7 +34359,7 @@
         <v>442</v>
       </c>
       <c r="J845" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="846" spans="1:10" x14ac:dyDescent="0.25">
@@ -34388,7 +34388,7 @@
         <v>429</v>
       </c>
       <c r="J846" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="847" spans="1:10" x14ac:dyDescent="0.25">
@@ -34420,7 +34420,7 @@
         <v>42</v>
       </c>
       <c r="J847" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="848" spans="1:10" x14ac:dyDescent="0.25">
@@ -34449,7 +34449,7 @@
         <v>48</v>
       </c>
       <c r="J848" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="849" spans="1:10" x14ac:dyDescent="0.25">
@@ -34478,7 +34478,7 @@
         <v>130</v>
       </c>
       <c r="J849" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="850" spans="1:10" x14ac:dyDescent="0.25">
@@ -34507,7 +34507,7 @@
         <v>264</v>
       </c>
       <c r="J850" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="851" spans="1:10" x14ac:dyDescent="0.25">
@@ -34539,7 +34539,7 @@
         <v>253</v>
       </c>
       <c r="J851" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="852" spans="1:10" x14ac:dyDescent="0.25">
@@ -34571,7 +34571,7 @@
         <v>170</v>
       </c>
       <c r="J852" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="853" spans="1:10" x14ac:dyDescent="0.25">
@@ -34600,7 +34600,7 @@
         <v>0</v>
       </c>
       <c r="J853" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="854" spans="1:10" x14ac:dyDescent="0.25">
@@ -34629,7 +34629,7 @@
         <v>522</v>
       </c>
       <c r="J854" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="855" spans="1:10" x14ac:dyDescent="0.25">
@@ -34661,7 +34661,7 @@
         <v>625</v>
       </c>
       <c r="J855" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="856" spans="1:10" x14ac:dyDescent="0.25">
@@ -34690,7 +34690,7 @@
         <v>156</v>
       </c>
       <c r="J856" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="857" spans="1:10" x14ac:dyDescent="0.25">
@@ -34719,7 +34719,7 @@
         <v>905</v>
       </c>
       <c r="J857" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="858" spans="1:10" x14ac:dyDescent="0.25">
@@ -34751,7 +34751,7 @@
         <v>48</v>
       </c>
       <c r="J858" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="859" spans="1:10" x14ac:dyDescent="0.25">
@@ -34783,7 +34783,7 @@
         <v>219</v>
       </c>
       <c r="J859" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="860" spans="1:10" x14ac:dyDescent="0.25">
@@ -34815,7 +34815,7 @@
         <v>78</v>
       </c>
       <c r="J860" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="861" spans="1:10" x14ac:dyDescent="0.25">
@@ -34847,7 +34847,7 @@
         <v>18</v>
       </c>
       <c r="J861" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="862" spans="1:10" x14ac:dyDescent="0.25">
@@ -34879,7 +34879,7 @@
         <v>14</v>
       </c>
       <c r="J862" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="863" spans="1:10" x14ac:dyDescent="0.25">
@@ -34911,7 +34911,7 @@
         <v>184</v>
       </c>
       <c r="J863" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="864" spans="1:10" x14ac:dyDescent="0.25">
@@ -34943,7 +34943,7 @@
         <v>175</v>
       </c>
       <c r="J864" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="865" spans="1:10" x14ac:dyDescent="0.25">
@@ -34975,7 +34975,7 @@
         <v>741</v>
       </c>
       <c r="J865" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="866" spans="1:10" x14ac:dyDescent="0.25">
@@ -35007,7 +35007,7 @@
         <v>17</v>
       </c>
       <c r="J866" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="867" spans="1:10" x14ac:dyDescent="0.25">
@@ -35039,7 +35039,7 @@
         <v>90</v>
       </c>
       <c r="J867" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="868" spans="1:10" x14ac:dyDescent="0.25">
@@ -35068,7 +35068,7 @@
         <v>53</v>
       </c>
       <c r="J868" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="869" spans="1:10" x14ac:dyDescent="0.25">
@@ -35100,7 +35100,7 @@
         <v>161</v>
       </c>
       <c r="J869" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/september.xlsx
+++ b/datasets/september.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User\Documents\GitHub\VisualAnalytics\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F432FC-8680-4EE0-8222-0871FEFB609A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A8A8AF-0E34-4332-944B-DB575C81637D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6719" uniqueCount="2391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6970" uniqueCount="2392">
   <si>
     <t>S.no</t>
   </si>
@@ -7193,6 +7193,9 @@
   </si>
   <si>
     <t>Followers</t>
+  </si>
+  <si>
+    <t>Mixed</t>
   </si>
 </sst>
 </file>
@@ -8045,7 +8048,7 @@
   <dimension ref="A1:J869"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8299,6 +8302,9 @@
       <c r="E8" t="s">
         <v>49</v>
       </c>
+      <c r="F8" t="s">
+        <v>2391</v>
+      </c>
       <c r="G8" t="s">
         <v>50</v>
       </c>
@@ -8328,6 +8334,9 @@
       <c r="E9" t="s">
         <v>54</v>
       </c>
+      <c r="F9" t="s">
+        <v>2391</v>
+      </c>
       <c r="G9" t="s">
         <v>55</v>
       </c>
@@ -8485,6 +8494,9 @@
       <c r="E14" t="s">
         <v>81</v>
       </c>
+      <c r="F14" t="s">
+        <v>2391</v>
+      </c>
       <c r="G14" t="s">
         <v>82</v>
       </c>
@@ -8610,6 +8622,9 @@
       <c r="E18" t="s">
         <v>102</v>
       </c>
+      <c r="F18" t="s">
+        <v>2391</v>
+      </c>
       <c r="G18" t="s">
         <v>103</v>
       </c>
@@ -8991,6 +9006,9 @@
       <c r="E30" t="s">
         <v>158</v>
       </c>
+      <c r="F30" t="s">
+        <v>2391</v>
+      </c>
       <c r="G30" t="s">
         <v>159</v>
       </c>
@@ -9052,6 +9070,9 @@
       <c r="E32" t="s">
         <v>166</v>
       </c>
+      <c r="F32" t="s">
+        <v>2391</v>
+      </c>
       <c r="G32" t="s">
         <v>70</v>
       </c>
@@ -9145,6 +9166,9 @@
       <c r="E35" t="s">
         <v>177</v>
       </c>
+      <c r="F35" t="s">
+        <v>2391</v>
+      </c>
       <c r="G35" t="s">
         <v>178</v>
       </c>
@@ -9302,6 +9326,9 @@
       <c r="E40" t="s">
         <v>202</v>
       </c>
+      <c r="F40" t="s">
+        <v>2391</v>
+      </c>
       <c r="G40" t="s">
         <v>203</v>
       </c>
@@ -9331,6 +9358,9 @@
       <c r="E41" t="s">
         <v>206</v>
       </c>
+      <c r="F41" t="s">
+        <v>2391</v>
+      </c>
       <c r="G41" t="s">
         <v>207</v>
       </c>
@@ -9392,6 +9422,9 @@
       <c r="E43" t="s">
         <v>211</v>
       </c>
+      <c r="F43" t="s">
+        <v>2391</v>
+      </c>
       <c r="G43" t="s">
         <v>216</v>
       </c>
@@ -9421,6 +9454,9 @@
       <c r="E44" t="s">
         <v>220</v>
       </c>
+      <c r="F44" t="s">
+        <v>2391</v>
+      </c>
       <c r="G44" t="s">
         <v>221</v>
       </c>
@@ -9578,6 +9614,9 @@
       <c r="E49" t="s">
         <v>235</v>
       </c>
+      <c r="F49" t="s">
+        <v>2391</v>
+      </c>
       <c r="G49" t="s">
         <v>242</v>
       </c>
@@ -9607,6 +9646,9 @@
       <c r="E50" t="s">
         <v>245</v>
       </c>
+      <c r="F50" t="s">
+        <v>2391</v>
+      </c>
       <c r="G50" t="s">
         <v>246</v>
       </c>
@@ -9700,6 +9742,9 @@
       <c r="E53" t="s">
         <v>260</v>
       </c>
+      <c r="F53" t="s">
+        <v>2391</v>
+      </c>
       <c r="G53">
         <v>205</v>
       </c>
@@ -9761,6 +9806,9 @@
       <c r="E55" t="s">
         <v>269</v>
       </c>
+      <c r="F55" t="s">
+        <v>2391</v>
+      </c>
       <c r="G55" t="s">
         <v>64</v>
       </c>
@@ -9854,6 +9902,9 @@
       <c r="E58" t="s">
         <v>282</v>
       </c>
+      <c r="F58" t="s">
+        <v>2391</v>
+      </c>
       <c r="G58" t="s">
         <v>283</v>
       </c>
@@ -9915,6 +9966,9 @@
       <c r="E60" t="s">
         <v>289</v>
       </c>
+      <c r="F60" t="s">
+        <v>2391</v>
+      </c>
       <c r="G60" t="s">
         <v>291</v>
       </c>
@@ -10008,6 +10062,9 @@
       <c r="E63" t="s">
         <v>302</v>
       </c>
+      <c r="F63" t="s">
+        <v>2391</v>
+      </c>
       <c r="G63" t="s">
         <v>303</v>
       </c>
@@ -10037,6 +10094,9 @@
       <c r="E64" t="s">
         <v>302</v>
       </c>
+      <c r="F64" t="s">
+        <v>2391</v>
+      </c>
       <c r="G64" t="s">
         <v>308</v>
       </c>
@@ -10130,6 +10190,9 @@
       <c r="E67" t="s">
         <v>319</v>
       </c>
+      <c r="F67" t="s">
+        <v>2391</v>
+      </c>
       <c r="G67" t="s">
         <v>320</v>
       </c>
@@ -10159,6 +10222,9 @@
       <c r="E68" t="s">
         <v>319</v>
       </c>
+      <c r="F68" t="s">
+        <v>2391</v>
+      </c>
       <c r="G68" t="s">
         <v>323</v>
       </c>
@@ -10252,6 +10318,9 @@
       <c r="E71" t="s">
         <v>333</v>
       </c>
+      <c r="F71" t="s">
+        <v>2391</v>
+      </c>
       <c r="G71" t="s">
         <v>334</v>
       </c>
@@ -10377,6 +10446,9 @@
       <c r="E75" t="s">
         <v>347</v>
       </c>
+      <c r="F75" t="s">
+        <v>2391</v>
+      </c>
       <c r="G75" t="s">
         <v>348</v>
       </c>
@@ -10438,6 +10510,9 @@
       <c r="E77" t="s">
         <v>356</v>
       </c>
+      <c r="F77" t="s">
+        <v>2391</v>
+      </c>
       <c r="G77" t="s">
         <v>357</v>
       </c>
@@ -10499,6 +10574,9 @@
       <c r="E79" t="s">
         <v>361</v>
       </c>
+      <c r="F79" t="s">
+        <v>2391</v>
+      </c>
       <c r="G79" t="s">
         <v>28</v>
       </c>
@@ -10560,6 +10638,9 @@
       <c r="E81" t="s">
         <v>369</v>
       </c>
+      <c r="F81" t="s">
+        <v>2391</v>
+      </c>
       <c r="G81" t="s">
         <v>370</v>
       </c>
@@ -10589,6 +10670,9 @@
       <c r="E82" t="s">
         <v>374</v>
       </c>
+      <c r="F82" t="s">
+        <v>2391</v>
+      </c>
       <c r="G82" t="s">
         <v>375</v>
       </c>
@@ -10618,6 +10702,9 @@
       <c r="E83" t="s">
         <v>379</v>
       </c>
+      <c r="F83" t="s">
+        <v>2391</v>
+      </c>
       <c r="G83" t="s">
         <v>380</v>
       </c>
@@ -10935,6 +11022,9 @@
       <c r="E93" t="s">
         <v>419</v>
       </c>
+      <c r="F93" t="s">
+        <v>2391</v>
+      </c>
       <c r="G93" t="s">
         <v>420</v>
       </c>
@@ -11188,6 +11278,9 @@
       <c r="E101" t="s">
         <v>445</v>
       </c>
+      <c r="F101" t="s">
+        <v>2391</v>
+      </c>
       <c r="G101" t="s">
         <v>216</v>
       </c>
@@ -11217,6 +11310,9 @@
       <c r="E102" t="s">
         <v>450</v>
       </c>
+      <c r="F102" t="s">
+        <v>2391</v>
+      </c>
       <c r="G102">
         <v>0</v>
       </c>
@@ -11246,6 +11342,9 @@
       <c r="E103" t="s">
         <v>453</v>
       </c>
+      <c r="F103" t="s">
+        <v>2391</v>
+      </c>
       <c r="G103" t="s">
         <v>454</v>
       </c>
@@ -11339,6 +11438,9 @@
       <c r="E106" t="s">
         <v>466</v>
       </c>
+      <c r="F106" t="s">
+        <v>2391</v>
+      </c>
       <c r="G106" t="s">
         <v>263</v>
       </c>
@@ -11368,6 +11470,9 @@
       <c r="E107" t="s">
         <v>468</v>
       </c>
+      <c r="F107" t="s">
+        <v>2391</v>
+      </c>
       <c r="G107" t="s">
         <v>469</v>
       </c>
@@ -11397,6 +11502,9 @@
       <c r="E108" t="s">
         <v>275</v>
       </c>
+      <c r="F108" t="s">
+        <v>2391</v>
+      </c>
       <c r="G108" t="s">
         <v>472</v>
       </c>
@@ -11458,6 +11566,9 @@
       <c r="E110" t="s">
         <v>480</v>
       </c>
+      <c r="F110" t="s">
+        <v>2391</v>
+      </c>
       <c r="G110" t="s">
         <v>123</v>
       </c>
@@ -11519,6 +11630,9 @@
       <c r="E112" t="s">
         <v>486</v>
       </c>
+      <c r="F112" t="s">
+        <v>2391</v>
+      </c>
       <c r="G112" t="s">
         <v>489</v>
       </c>
@@ -11644,6 +11758,9 @@
       <c r="E116" t="s">
         <v>502</v>
       </c>
+      <c r="F116" t="s">
+        <v>2391</v>
+      </c>
       <c r="G116" t="s">
         <v>503</v>
       </c>
@@ -12185,6 +12302,9 @@
       <c r="E133" t="s">
         <v>564</v>
       </c>
+      <c r="F133" t="s">
+        <v>2391</v>
+      </c>
       <c r="G133" t="s">
         <v>565</v>
       </c>
@@ -12310,6 +12430,9 @@
       <c r="E137" t="s">
         <v>572</v>
       </c>
+      <c r="F137" t="s">
+        <v>2391</v>
+      </c>
       <c r="G137" t="s">
         <v>579</v>
       </c>
@@ -12595,6 +12718,9 @@
       <c r="E146" t="s">
         <v>611</v>
       </c>
+      <c r="F146" t="s">
+        <v>2391</v>
+      </c>
       <c r="G146" t="s">
         <v>612</v>
       </c>
@@ -12720,6 +12846,9 @@
       <c r="E150" t="s">
         <v>621</v>
       </c>
+      <c r="F150" t="s">
+        <v>2391</v>
+      </c>
       <c r="G150" t="s">
         <v>625</v>
       </c>
@@ -12813,6 +12942,9 @@
       <c r="E153" t="s">
         <v>630</v>
       </c>
+      <c r="F153" t="s">
+        <v>2391</v>
+      </c>
       <c r="G153" t="s">
         <v>637</v>
       </c>
@@ -12842,6 +12974,9 @@
       <c r="E154" t="s">
         <v>630</v>
       </c>
+      <c r="F154" t="s">
+        <v>2391</v>
+      </c>
       <c r="G154" t="s">
         <v>266</v>
       </c>
@@ -12903,6 +13038,9 @@
       <c r="E156" t="s">
         <v>642</v>
       </c>
+      <c r="F156" t="s">
+        <v>2391</v>
+      </c>
       <c r="G156" t="s">
         <v>25</v>
       </c>
@@ -13028,6 +13166,9 @@
       <c r="E160" t="s">
         <v>652</v>
       </c>
+      <c r="F160" t="s">
+        <v>2391</v>
+      </c>
       <c r="G160" t="s">
         <v>174</v>
       </c>
@@ -13089,6 +13230,9 @@
       <c r="E162" t="s">
         <v>662</v>
       </c>
+      <c r="F162" t="s">
+        <v>2391</v>
+      </c>
       <c r="G162" t="s">
         <v>664</v>
       </c>
@@ -13150,6 +13294,9 @@
       <c r="E164" t="s">
         <v>669</v>
       </c>
+      <c r="F164" t="s">
+        <v>2391</v>
+      </c>
       <c r="G164" t="s">
         <v>670</v>
       </c>
@@ -13179,6 +13326,9 @@
       <c r="E165" t="s">
         <v>671</v>
       </c>
+      <c r="F165" t="s">
+        <v>2391</v>
+      </c>
       <c r="G165" t="s">
         <v>237</v>
       </c>
@@ -13304,6 +13454,9 @@
       <c r="E169" t="s">
         <v>676</v>
       </c>
+      <c r="F169" t="s">
+        <v>2391</v>
+      </c>
       <c r="G169" t="s">
         <v>197</v>
       </c>
@@ -13333,6 +13486,9 @@
       <c r="E170" t="s">
         <v>358</v>
       </c>
+      <c r="F170" t="s">
+        <v>2391</v>
+      </c>
       <c r="G170" t="s">
         <v>689</v>
       </c>
@@ -13458,6 +13614,9 @@
       <c r="E174" t="s">
         <v>703</v>
       </c>
+      <c r="F174" t="s">
+        <v>2391</v>
+      </c>
       <c r="G174" t="s">
         <v>704</v>
       </c>
@@ -13775,6 +13934,9 @@
       <c r="E184" t="s">
         <v>738</v>
       </c>
+      <c r="F184" t="s">
+        <v>2391</v>
+      </c>
       <c r="G184" t="s">
         <v>739</v>
       </c>
@@ -13836,6 +13998,9 @@
       <c r="E186" t="s">
         <v>747</v>
       </c>
+      <c r="F186" t="s">
+        <v>2391</v>
+      </c>
       <c r="G186" t="s">
         <v>748</v>
       </c>
@@ -13865,6 +14030,9 @@
       <c r="E187" t="s">
         <v>747</v>
       </c>
+      <c r="F187" t="s">
+        <v>2391</v>
+      </c>
       <c r="G187" t="s">
         <v>121</v>
       </c>
@@ -13894,6 +14062,9 @@
       <c r="E188" t="s">
         <v>747</v>
       </c>
+      <c r="F188" t="s">
+        <v>2391</v>
+      </c>
       <c r="G188" t="s">
         <v>754</v>
       </c>
@@ -13923,6 +14094,9 @@
       <c r="E189" t="s">
         <v>757</v>
       </c>
+      <c r="F189" t="s">
+        <v>2391</v>
+      </c>
       <c r="G189" t="s">
         <v>758</v>
       </c>
@@ -14112,6 +14286,9 @@
       <c r="E195" t="s">
         <v>765</v>
       </c>
+      <c r="F195" t="s">
+        <v>2391</v>
+      </c>
       <c r="G195" t="s">
         <v>774</v>
       </c>
@@ -14205,6 +14382,9 @@
       <c r="E198" t="s">
         <v>783</v>
       </c>
+      <c r="F198" t="s">
+        <v>2391</v>
+      </c>
       <c r="G198" t="s">
         <v>784</v>
       </c>
@@ -14266,6 +14446,9 @@
       <c r="E200" t="s">
         <v>789</v>
       </c>
+      <c r="F200" t="s">
+        <v>2391</v>
+      </c>
       <c r="G200" t="s">
         <v>790</v>
       </c>
@@ -14295,6 +14478,9 @@
       <c r="E201" t="s">
         <v>789</v>
       </c>
+      <c r="F201" t="s">
+        <v>2391</v>
+      </c>
       <c r="G201" t="s">
         <v>213</v>
       </c>
@@ -14548,6 +14734,9 @@
       <c r="E209" t="s">
         <v>820</v>
       </c>
+      <c r="F209" t="s">
+        <v>2391</v>
+      </c>
       <c r="G209" t="s">
         <v>821</v>
       </c>
@@ -14609,6 +14798,9 @@
       <c r="E211" t="s">
         <v>820</v>
       </c>
+      <c r="F211" t="s">
+        <v>2391</v>
+      </c>
       <c r="G211" t="s">
         <v>827</v>
       </c>
@@ -14638,6 +14830,9 @@
       <c r="E212" t="s">
         <v>831</v>
       </c>
+      <c r="F212" t="s">
+        <v>2391</v>
+      </c>
       <c r="G212" t="s">
         <v>832</v>
       </c>
@@ -14795,6 +14990,9 @@
       <c r="E217" t="s">
         <v>849</v>
       </c>
+      <c r="F217" t="s">
+        <v>2391</v>
+      </c>
       <c r="G217" t="s">
         <v>850</v>
       </c>
@@ -14824,6 +15022,9 @@
       <c r="E218" t="s">
         <v>849</v>
       </c>
+      <c r="F218" t="s">
+        <v>2391</v>
+      </c>
       <c r="G218" t="s">
         <v>853</v>
       </c>
@@ -15013,6 +15214,9 @@
       <c r="E224" t="s">
         <v>863</v>
       </c>
+      <c r="F224" t="s">
+        <v>2391</v>
+      </c>
       <c r="G224" t="s">
         <v>869</v>
       </c>
@@ -15138,6 +15342,9 @@
       <c r="E228" t="s">
         <v>878</v>
       </c>
+      <c r="F228" t="s">
+        <v>2391</v>
+      </c>
       <c r="G228" t="s">
         <v>881</v>
       </c>
@@ -15167,6 +15374,9 @@
       <c r="E229" t="s">
         <v>878</v>
       </c>
+      <c r="F229" t="s">
+        <v>2391</v>
+      </c>
       <c r="G229" t="s">
         <v>884</v>
       </c>
@@ -15196,6 +15406,9 @@
       <c r="E230" t="s">
         <v>886</v>
       </c>
+      <c r="F230" t="s">
+        <v>2391</v>
+      </c>
       <c r="G230" t="s">
         <v>887</v>
       </c>
@@ -15321,6 +15534,9 @@
       <c r="E234" t="s">
         <v>895</v>
       </c>
+      <c r="F234" t="s">
+        <v>2391</v>
+      </c>
       <c r="G234" t="s">
         <v>123</v>
       </c>
@@ -15638,6 +15854,9 @@
       <c r="E244" t="s">
         <v>916</v>
       </c>
+      <c r="F244" t="s">
+        <v>2391</v>
+      </c>
       <c r="G244" t="s">
         <v>926</v>
       </c>
@@ -15763,6 +15982,9 @@
       <c r="E248" t="s">
         <v>936</v>
       </c>
+      <c r="F248" t="s">
+        <v>2391</v>
+      </c>
       <c r="G248" t="s">
         <v>939</v>
       </c>
@@ -16080,6 +16302,9 @@
       <c r="E258" t="s">
         <v>971</v>
       </c>
+      <c r="F258" t="s">
+        <v>2391</v>
+      </c>
       <c r="G258" t="s">
         <v>99</v>
       </c>
@@ -16269,6 +16494,9 @@
       <c r="E264" t="s">
         <v>986</v>
       </c>
+      <c r="F264" t="s">
+        <v>2391</v>
+      </c>
       <c r="G264" t="s">
         <v>242</v>
       </c>
@@ -16362,6 +16590,9 @@
       <c r="E267" t="s">
         <v>999</v>
       </c>
+      <c r="F267" t="s">
+        <v>2391</v>
+      </c>
       <c r="G267" t="s">
         <v>1000</v>
       </c>
@@ -16391,6 +16622,9 @@
       <c r="E268" t="s">
         <v>999</v>
       </c>
+      <c r="F268" t="s">
+        <v>2391</v>
+      </c>
       <c r="G268" t="s">
         <v>30</v>
       </c>
@@ -16452,6 +16686,9 @@
       <c r="E270" t="s">
         <v>1007</v>
       </c>
+      <c r="F270" t="s">
+        <v>2391</v>
+      </c>
       <c r="G270" t="s">
         <v>1008</v>
       </c>
@@ -16545,6 +16782,9 @@
       <c r="E273" t="s">
         <v>1007</v>
       </c>
+      <c r="F273" t="s">
+        <v>2391</v>
+      </c>
       <c r="G273" t="s">
         <v>961</v>
       </c>
@@ -16574,6 +16814,9 @@
       <c r="E274" t="s">
         <v>1007</v>
       </c>
+      <c r="F274" t="s">
+        <v>2391</v>
+      </c>
       <c r="G274" t="s">
         <v>1019</v>
       </c>
@@ -16635,6 +16878,9 @@
       <c r="E276" t="s">
         <v>1021</v>
       </c>
+      <c r="F276" t="s">
+        <v>2391</v>
+      </c>
       <c r="G276" t="s">
         <v>1027</v>
       </c>
@@ -16696,6 +16942,9 @@
       <c r="E278" t="s">
         <v>1021</v>
       </c>
+      <c r="F278" t="s">
+        <v>2391</v>
+      </c>
       <c r="G278" t="s">
         <v>1033</v>
       </c>
@@ -16917,6 +17166,9 @@
       <c r="E285" t="s">
         <v>1053</v>
       </c>
+      <c r="F285" t="s">
+        <v>2391</v>
+      </c>
       <c r="G285" t="s">
         <v>266</v>
       </c>
@@ -16978,6 +17230,9 @@
       <c r="E287" t="s">
         <v>1053</v>
       </c>
+      <c r="F287" t="s">
+        <v>2391</v>
+      </c>
       <c r="G287" t="s">
         <v>1061</v>
       </c>
@@ -17135,6 +17390,9 @@
       <c r="E292" t="s">
         <v>1063</v>
       </c>
+      <c r="F292" t="s">
+        <v>2391</v>
+      </c>
       <c r="G292" t="s">
         <v>1076</v>
       </c>
@@ -17228,6 +17486,9 @@
       <c r="E295" t="s">
         <v>1079</v>
       </c>
+      <c r="F295" t="s">
+        <v>2391</v>
+      </c>
       <c r="G295" t="s">
         <v>1083</v>
       </c>
@@ -17257,6 +17518,9 @@
       <c r="E296" t="s">
         <v>1084</v>
       </c>
+      <c r="F296" t="s">
+        <v>2391</v>
+      </c>
       <c r="G296" t="s">
         <v>684</v>
       </c>
@@ -17286,6 +17550,9 @@
       <c r="E297" t="s">
         <v>1084</v>
       </c>
+      <c r="F297" t="s">
+        <v>2391</v>
+      </c>
       <c r="G297" t="s">
         <v>1087</v>
       </c>
@@ -17411,6 +17678,9 @@
       <c r="E301" t="s">
         <v>1095</v>
       </c>
+      <c r="F301" t="s">
+        <v>2391</v>
+      </c>
       <c r="G301" t="s">
         <v>1099</v>
       </c>
@@ -17536,6 +17806,9 @@
       <c r="E305" t="s">
         <v>1105</v>
       </c>
+      <c r="F305" t="s">
+        <v>2391</v>
+      </c>
       <c r="G305" t="s">
         <v>908</v>
       </c>
@@ -17597,6 +17870,9 @@
       <c r="E307" t="s">
         <v>1114</v>
       </c>
+      <c r="F307" t="s">
+        <v>2391</v>
+      </c>
       <c r="G307" t="s">
         <v>1115</v>
       </c>
@@ -17626,6 +17902,9 @@
       <c r="E308" t="s">
         <v>1114</v>
       </c>
+      <c r="F308" t="s">
+        <v>2391</v>
+      </c>
       <c r="G308" t="s">
         <v>388</v>
       </c>
@@ -17783,6 +18062,9 @@
       <c r="E313" t="s">
         <v>1127</v>
       </c>
+      <c r="F313" t="s">
+        <v>2391</v>
+      </c>
       <c r="G313" t="s">
         <v>1132</v>
       </c>
@@ -17812,6 +18094,9 @@
       <c r="E314" t="s">
         <v>1127</v>
       </c>
+      <c r="F314" t="s">
+        <v>2391</v>
+      </c>
       <c r="G314" t="s">
         <v>154</v>
       </c>
@@ -17841,6 +18126,9 @@
       <c r="E315" t="s">
         <v>1127</v>
       </c>
+      <c r="F315" t="s">
+        <v>2391</v>
+      </c>
       <c r="G315" t="s">
         <v>890</v>
       </c>
@@ -17966,6 +18254,9 @@
       <c r="E319" t="s">
         <v>1127</v>
       </c>
+      <c r="F319" t="s">
+        <v>2391</v>
+      </c>
       <c r="G319" t="s">
         <v>64</v>
       </c>
@@ -18283,6 +18574,9 @@
       <c r="E329" t="s">
         <v>1168</v>
       </c>
+      <c r="F329" t="s">
+        <v>2391</v>
+      </c>
       <c r="G329" t="s">
         <v>207</v>
       </c>
@@ -18472,6 +18766,9 @@
       <c r="E335" t="s">
         <v>1179</v>
       </c>
+      <c r="F335" t="s">
+        <v>2391</v>
+      </c>
       <c r="G335" t="s">
         <v>1186</v>
       </c>
@@ -18501,6 +18798,9 @@
       <c r="E336" t="s">
         <v>1179</v>
       </c>
+      <c r="F336" t="s">
+        <v>2391</v>
+      </c>
       <c r="G336" t="s">
         <v>1188</v>
       </c>
@@ -18594,6 +18894,9 @@
       <c r="E339" t="s">
         <v>1192</v>
       </c>
+      <c r="F339" t="s">
+        <v>2391</v>
+      </c>
       <c r="G339" t="s">
         <v>1201</v>
       </c>
@@ -18655,6 +18958,9 @@
       <c r="E341" t="s">
         <v>1203</v>
       </c>
+      <c r="F341" t="s">
+        <v>2391</v>
+      </c>
       <c r="G341" t="s">
         <v>1207</v>
       </c>
@@ -18684,6 +18990,9 @@
       <c r="E342" t="s">
         <v>1203</v>
       </c>
+      <c r="F342" t="s">
+        <v>2391</v>
+      </c>
       <c r="G342" t="s">
         <v>221</v>
       </c>
@@ -18713,6 +19022,9 @@
       <c r="E343" t="s">
         <v>1203</v>
       </c>
+      <c r="F343" t="s">
+        <v>2391</v>
+      </c>
       <c r="G343" t="s">
         <v>1210</v>
       </c>
@@ -18742,6 +19054,9 @@
       <c r="E344" t="s">
         <v>1203</v>
       </c>
+      <c r="F344" t="s">
+        <v>2391</v>
+      </c>
       <c r="G344" t="s">
         <v>851</v>
       </c>
@@ -18835,6 +19150,9 @@
       <c r="E347" t="s">
         <v>1219</v>
       </c>
+      <c r="F347" t="s">
+        <v>2391</v>
+      </c>
       <c r="G347" t="s">
         <v>1220</v>
       </c>
@@ -18992,6 +19310,9 @@
       <c r="E352" t="s">
         <v>1228</v>
       </c>
+      <c r="F352" t="s">
+        <v>2391</v>
+      </c>
       <c r="G352" t="s">
         <v>1234</v>
       </c>
@@ -19117,6 +19438,9 @@
       <c r="E356" t="s">
         <v>1228</v>
       </c>
+      <c r="F356" t="s">
+        <v>2391</v>
+      </c>
       <c r="G356" t="s">
         <v>123</v>
       </c>
@@ -19370,6 +19694,9 @@
       <c r="E364" t="s">
         <v>1267</v>
       </c>
+      <c r="F364" t="s">
+        <v>2391</v>
+      </c>
       <c r="G364" t="s">
         <v>1268</v>
       </c>
@@ -19559,6 +19886,9 @@
       <c r="E370" t="s">
         <v>1284</v>
       </c>
+      <c r="F370" t="s">
+        <v>2391</v>
+      </c>
       <c r="G370" t="s">
         <v>618</v>
       </c>
@@ -19588,6 +19918,9 @@
       <c r="E371" t="s">
         <v>1284</v>
       </c>
+      <c r="F371" t="s">
+        <v>2391</v>
+      </c>
       <c r="G371" t="s">
         <v>1289</v>
       </c>
@@ -19777,6 +20110,9 @@
       <c r="E377" t="s">
         <v>1296</v>
       </c>
+      <c r="F377" t="s">
+        <v>2391</v>
+      </c>
       <c r="G377" t="s">
         <v>882</v>
       </c>
@@ -19966,6 +20302,9 @@
       <c r="E383" t="s">
         <v>1308</v>
       </c>
+      <c r="F383" t="s">
+        <v>2391</v>
+      </c>
       <c r="G383">
         <v>0</v>
       </c>
@@ -20123,6 +20462,9 @@
       <c r="E388" t="s">
         <v>1308</v>
       </c>
+      <c r="F388" t="s">
+        <v>2391</v>
+      </c>
       <c r="G388" t="s">
         <v>1325</v>
       </c>
@@ -20184,6 +20526,9 @@
       <c r="E390" t="s">
         <v>1308</v>
       </c>
+      <c r="F390" t="s">
+        <v>2391</v>
+      </c>
       <c r="G390" t="s">
         <v>650</v>
       </c>
@@ -20341,6 +20686,9 @@
       <c r="E395" t="s">
         <v>1331</v>
       </c>
+      <c r="F395" t="s">
+        <v>2391</v>
+      </c>
       <c r="G395" t="s">
         <v>1340</v>
       </c>
@@ -20370,6 +20718,9 @@
       <c r="E396" t="s">
         <v>1331</v>
       </c>
+      <c r="F396" t="s">
+        <v>2391</v>
+      </c>
       <c r="G396" t="s">
         <v>207</v>
       </c>
@@ -20431,6 +20782,9 @@
       <c r="E398" t="s">
         <v>1344</v>
       </c>
+      <c r="F398" t="s">
+        <v>2391</v>
+      </c>
       <c r="G398" t="s">
         <v>1348</v>
       </c>
@@ -20524,6 +20878,9 @@
       <c r="E401" t="s">
         <v>1344</v>
       </c>
+      <c r="F401" t="s">
+        <v>2391</v>
+      </c>
       <c r="G401" t="s">
         <v>1354</v>
       </c>
@@ -20585,6 +20942,9 @@
       <c r="E403" t="s">
         <v>1344</v>
       </c>
+      <c r="F403" t="s">
+        <v>2391</v>
+      </c>
       <c r="G403" t="s">
         <v>701</v>
       </c>
@@ -20838,6 +21198,9 @@
       <c r="E411" t="s">
         <v>1372</v>
       </c>
+      <c r="F411" t="s">
+        <v>2391</v>
+      </c>
       <c r="G411" t="s">
         <v>251</v>
       </c>
@@ -20899,6 +21262,9 @@
       <c r="E413" t="s">
         <v>1372</v>
       </c>
+      <c r="F413" t="s">
+        <v>2391</v>
+      </c>
       <c r="G413" t="s">
         <v>1387</v>
       </c>
@@ -20928,6 +21294,9 @@
       <c r="E414" t="s">
         <v>1372</v>
       </c>
+      <c r="F414" t="s">
+        <v>2391</v>
+      </c>
       <c r="G414" t="s">
         <v>1390</v>
       </c>
@@ -21085,6 +21454,9 @@
       <c r="E419" t="s">
         <v>1397</v>
       </c>
+      <c r="F419" t="s">
+        <v>2391</v>
+      </c>
       <c r="G419" t="s">
         <v>1404</v>
       </c>
@@ -21370,6 +21742,9 @@
       <c r="E428" t="s">
         <v>1409</v>
       </c>
+      <c r="F428" t="s">
+        <v>2391</v>
+      </c>
       <c r="G428" t="s">
         <v>1431</v>
       </c>
@@ -21495,6 +21870,9 @@
       <c r="E432" t="s">
         <v>1248</v>
       </c>
+      <c r="F432" t="s">
+        <v>2391</v>
+      </c>
       <c r="G432" t="s">
         <v>751</v>
       </c>
@@ -21652,6 +22030,9 @@
       <c r="E437" t="s">
         <v>1248</v>
       </c>
+      <c r="F437" t="s">
+        <v>2391</v>
+      </c>
       <c r="G437" t="s">
         <v>266</v>
       </c>
@@ -21713,6 +22094,9 @@
       <c r="E439" t="s">
         <v>1248</v>
       </c>
+      <c r="F439" t="s">
+        <v>2391</v>
+      </c>
       <c r="G439" t="s">
         <v>1460</v>
       </c>
@@ -21806,6 +22190,9 @@
       <c r="E442" t="s">
         <v>1248</v>
       </c>
+      <c r="F442" t="s">
+        <v>2391</v>
+      </c>
       <c r="G442" t="s">
         <v>1468</v>
       </c>
@@ -21995,6 +22382,9 @@
       <c r="E448" t="s">
         <v>1486</v>
       </c>
+      <c r="F448" t="s">
+        <v>2391</v>
+      </c>
       <c r="G448" t="s">
         <v>1487</v>
       </c>
@@ -22120,6 +22510,9 @@
       <c r="E452" t="s">
         <v>1486</v>
       </c>
+      <c r="F452" t="s">
+        <v>2391</v>
+      </c>
       <c r="G452" t="s">
         <v>790</v>
       </c>
@@ -22149,6 +22542,9 @@
       <c r="E453" t="s">
         <v>1486</v>
       </c>
+      <c r="F453" t="s">
+        <v>2391</v>
+      </c>
       <c r="G453" t="s">
         <v>1497</v>
       </c>
@@ -22178,6 +22574,9 @@
       <c r="E454" t="s">
         <v>1486</v>
       </c>
+      <c r="F454" t="s">
+        <v>2391</v>
+      </c>
       <c r="G454" t="s">
         <v>1499</v>
       </c>
@@ -22207,6 +22606,9 @@
       <c r="E455" t="s">
         <v>1486</v>
       </c>
+      <c r="F455" t="s">
+        <v>2391</v>
+      </c>
       <c r="G455" t="s">
         <v>141</v>
       </c>
@@ -22236,6 +22638,9 @@
       <c r="E456" t="s">
         <v>1502</v>
       </c>
+      <c r="F456" t="s">
+        <v>2391</v>
+      </c>
       <c r="G456">
         <v>394</v>
       </c>
@@ -22297,6 +22702,9 @@
       <c r="E458" t="s">
         <v>1502</v>
       </c>
+      <c r="F458" t="s">
+        <v>2391</v>
+      </c>
       <c r="G458" t="s">
         <v>1508</v>
       </c>
@@ -22326,6 +22734,9 @@
       <c r="E459" t="s">
         <v>1502</v>
       </c>
+      <c r="F459" t="s">
+        <v>2391</v>
+      </c>
       <c r="G459" t="s">
         <v>95</v>
       </c>
@@ -22419,6 +22830,9 @@
       <c r="E462" t="s">
         <v>1517</v>
       </c>
+      <c r="F462" t="s">
+        <v>2391</v>
+      </c>
       <c r="G462" t="s">
         <v>1518</v>
       </c>
@@ -22704,6 +23118,9 @@
       <c r="E471" t="s">
         <v>1538</v>
       </c>
+      <c r="F471" t="s">
+        <v>2391</v>
+      </c>
       <c r="G471" t="s">
         <v>1540</v>
       </c>
@@ -22765,6 +23182,9 @@
       <c r="E473" t="s">
         <v>1538</v>
       </c>
+      <c r="F473" t="s">
+        <v>2391</v>
+      </c>
       <c r="G473" t="s">
         <v>1546</v>
       </c>
@@ -22826,6 +23246,9 @@
       <c r="E475" t="s">
         <v>1538</v>
       </c>
+      <c r="F475" t="s">
+        <v>2391</v>
+      </c>
       <c r="G475" t="s">
         <v>1179</v>
       </c>
@@ -22951,6 +23374,9 @@
       <c r="E479" t="s">
         <v>1561</v>
       </c>
+      <c r="F479" t="s">
+        <v>2391</v>
+      </c>
       <c r="G479" t="s">
         <v>242</v>
       </c>
@@ -23204,6 +23630,9 @@
       <c r="E487" t="s">
         <v>1568</v>
       </c>
+      <c r="F487" t="s">
+        <v>2391</v>
+      </c>
       <c r="G487" t="s">
         <v>256</v>
       </c>
@@ -23361,6 +23790,9 @@
       <c r="E492" t="s">
         <v>1568</v>
       </c>
+      <c r="F492" t="s">
+        <v>2391</v>
+      </c>
       <c r="G492" t="s">
         <v>42</v>
       </c>
@@ -23614,6 +24046,9 @@
       <c r="E500" t="s">
         <v>1613</v>
       </c>
+      <c r="F500" t="s">
+        <v>2391</v>
+      </c>
       <c r="G500" t="s">
         <v>1614</v>
       </c>
@@ -23707,6 +24142,9 @@
       <c r="E503" t="s">
         <v>1613</v>
       </c>
+      <c r="F503" t="s">
+        <v>2391</v>
+      </c>
       <c r="G503" t="s">
         <v>1622</v>
       </c>
@@ -23896,6 +24334,9 @@
       <c r="E509" t="s">
         <v>1613</v>
       </c>
+      <c r="F509" t="s">
+        <v>2391</v>
+      </c>
       <c r="G509" t="s">
         <v>1637</v>
       </c>
@@ -24085,6 +24526,9 @@
       <c r="E515" t="s">
         <v>850</v>
       </c>
+      <c r="F515" t="s">
+        <v>2391</v>
+      </c>
       <c r="G515" t="s">
         <v>1228</v>
       </c>
@@ -24178,6 +24622,9 @@
       <c r="E518" t="s">
         <v>850</v>
       </c>
+      <c r="F518" t="s">
+        <v>2391</v>
+      </c>
       <c r="G518" t="s">
         <v>1655</v>
       </c>
@@ -24463,6 +24910,9 @@
       <c r="E527" t="s">
         <v>1657</v>
       </c>
+      <c r="F527" t="s">
+        <v>2391</v>
+      </c>
       <c r="G527" t="s">
         <v>1670</v>
       </c>
@@ -24492,6 +24942,9 @@
       <c r="E528" t="s">
         <v>1657</v>
       </c>
+      <c r="F528" t="s">
+        <v>2391</v>
+      </c>
       <c r="G528" t="s">
         <v>1672</v>
       </c>
@@ -24521,6 +24974,9 @@
       <c r="E529" t="s">
         <v>1657</v>
       </c>
+      <c r="F529" t="s">
+        <v>2391</v>
+      </c>
       <c r="G529" t="s">
         <v>1675</v>
       </c>
@@ -24582,6 +25038,9 @@
       <c r="E531" t="s">
         <v>1657</v>
       </c>
+      <c r="F531" t="s">
+        <v>2391</v>
+      </c>
       <c r="G531" t="s">
         <v>1680</v>
       </c>
@@ -24643,6 +25102,9 @@
       <c r="E533" t="s">
         <v>1657</v>
       </c>
+      <c r="F533" t="s">
+        <v>2391</v>
+      </c>
       <c r="G533" t="s">
         <v>1685</v>
       </c>
@@ -24672,6 +25134,9 @@
       <c r="E534" t="s">
         <v>1657</v>
       </c>
+      <c r="F534" t="s">
+        <v>2391</v>
+      </c>
       <c r="G534" t="s">
         <v>1687</v>
       </c>
@@ -24829,6 +25294,9 @@
       <c r="E539" t="s">
         <v>12</v>
       </c>
+      <c r="F539" t="s">
+        <v>2391</v>
+      </c>
       <c r="G539" t="s">
         <v>1700</v>
       </c>
@@ -24986,6 +25454,9 @@
       <c r="E544" t="s">
         <v>1703</v>
       </c>
+      <c r="F544" t="s">
+        <v>2391</v>
+      </c>
       <c r="G544" t="s">
         <v>827</v>
       </c>
@@ -25015,6 +25486,9 @@
       <c r="E545" t="s">
         <v>1703</v>
       </c>
+      <c r="F545" t="s">
+        <v>2391</v>
+      </c>
       <c r="G545" t="s">
         <v>1716</v>
       </c>
@@ -25076,6 +25550,9 @@
       <c r="E547" t="s">
         <v>1703</v>
       </c>
+      <c r="F547" t="s">
+        <v>2391</v>
+      </c>
       <c r="G547" t="s">
         <v>1724</v>
       </c>
@@ -25201,6 +25678,9 @@
       <c r="E551" t="s">
         <v>1732</v>
       </c>
+      <c r="F551" t="s">
+        <v>2391</v>
+      </c>
       <c r="G551" t="s">
         <v>46</v>
       </c>
@@ -25454,6 +25934,9 @@
       <c r="E559" t="s">
         <v>1746</v>
       </c>
+      <c r="F559" t="s">
+        <v>2391</v>
+      </c>
       <c r="G559" t="s">
         <v>212</v>
       </c>
@@ -25707,6 +26190,9 @@
       <c r="E567" t="s">
         <v>1771</v>
       </c>
+      <c r="F567" t="s">
+        <v>2391</v>
+      </c>
       <c r="G567" t="s">
         <v>692</v>
       </c>
@@ -25928,6 +26414,9 @@
       <c r="E574" t="s">
         <v>1789</v>
       </c>
+      <c r="F574" t="s">
+        <v>2391</v>
+      </c>
       <c r="G574" t="s">
         <v>1798</v>
       </c>
@@ -25989,6 +26478,9 @@
       <c r="E576" t="s">
         <v>1789</v>
       </c>
+      <c r="F576" t="s">
+        <v>2391</v>
+      </c>
       <c r="G576" t="s">
         <v>456</v>
       </c>
@@ -26018,6 +26510,9 @@
       <c r="E577" t="s">
         <v>1789</v>
       </c>
+      <c r="F577" t="s">
+        <v>2391</v>
+      </c>
       <c r="G577" t="s">
         <v>154</v>
       </c>
@@ -26079,6 +26574,9 @@
       <c r="E579" t="s">
         <v>1789</v>
       </c>
+      <c r="F579" t="s">
+        <v>2391</v>
+      </c>
       <c r="G579" t="s">
         <v>890</v>
       </c>
@@ -26140,6 +26638,9 @@
       <c r="E581" t="s">
         <v>1789</v>
       </c>
+      <c r="F581" t="s">
+        <v>2391</v>
+      </c>
       <c r="G581" t="s">
         <v>1812</v>
       </c>
@@ -26201,6 +26702,9 @@
       <c r="E583" t="s">
         <v>1789</v>
       </c>
+      <c r="F583" t="s">
+        <v>2391</v>
+      </c>
       <c r="G583" t="s">
         <v>121</v>
       </c>
@@ -26422,6 +26926,9 @@
       <c r="E590" t="s">
         <v>1197</v>
       </c>
+      <c r="F590" t="s">
+        <v>2391</v>
+      </c>
       <c r="G590" t="s">
         <v>1832</v>
       </c>
@@ -26611,6 +27118,9 @@
       <c r="E596" t="s">
         <v>1841</v>
       </c>
+      <c r="F596" t="s">
+        <v>2391</v>
+      </c>
       <c r="G596" t="s">
         <v>1844</v>
       </c>
@@ -26960,6 +27470,9 @@
       <c r="E607" t="s">
         <v>1841</v>
       </c>
+      <c r="F607" t="s">
+        <v>2391</v>
+      </c>
       <c r="G607" t="s">
         <v>994</v>
       </c>
@@ -26989,6 +27502,9 @@
       <c r="E608" t="s">
         <v>1869</v>
       </c>
+      <c r="F608" t="s">
+        <v>2391</v>
+      </c>
       <c r="G608" t="s">
         <v>1871</v>
       </c>
@@ -27018,6 +27534,9 @@
       <c r="E609" t="s">
         <v>1869</v>
       </c>
+      <c r="F609" t="s">
+        <v>2391</v>
+      </c>
       <c r="G609" t="s">
         <v>1873</v>
       </c>
@@ -27207,6 +27726,9 @@
       <c r="E615" t="s">
         <v>1879</v>
       </c>
+      <c r="F615" t="s">
+        <v>2391</v>
+      </c>
       <c r="G615" t="s">
         <v>218</v>
       </c>
@@ -27236,6 +27758,9 @@
       <c r="E616" t="s">
         <v>1879</v>
       </c>
+      <c r="F616" t="s">
+        <v>2391</v>
+      </c>
       <c r="G616" t="s">
         <v>1886</v>
       </c>
@@ -27265,6 +27790,9 @@
       <c r="E617" t="s">
         <v>1879</v>
       </c>
+      <c r="F617" t="s">
+        <v>2391</v>
+      </c>
       <c r="G617" t="s">
         <v>1888</v>
       </c>
@@ -27294,6 +27822,9 @@
       <c r="E618" t="s">
         <v>1879</v>
       </c>
+      <c r="F618" t="s">
+        <v>2391</v>
+      </c>
       <c r="G618" t="s">
         <v>1890</v>
       </c>
@@ -27323,6 +27854,9 @@
       <c r="E619" t="s">
         <v>1879</v>
       </c>
+      <c r="F619" t="s">
+        <v>2391</v>
+      </c>
       <c r="G619" t="s">
         <v>334</v>
       </c>
@@ -27448,6 +27982,9 @@
       <c r="E623" t="s">
         <v>1904</v>
       </c>
+      <c r="F623" t="s">
+        <v>2391</v>
+      </c>
       <c r="G623" t="s">
         <v>736</v>
       </c>
@@ -27509,6 +28046,9 @@
       <c r="E625" t="s">
         <v>1904</v>
       </c>
+      <c r="F625" t="s">
+        <v>2391</v>
+      </c>
       <c r="G625" t="s">
         <v>1908</v>
       </c>
@@ -27570,6 +28110,9 @@
       <c r="E627" t="s">
         <v>1786</v>
       </c>
+      <c r="F627" t="s">
+        <v>2391</v>
+      </c>
       <c r="G627" t="s">
         <v>1914</v>
       </c>
@@ -27599,6 +28142,9 @@
       <c r="E628" t="s">
         <v>1786</v>
       </c>
+      <c r="F628" t="s">
+        <v>2391</v>
+      </c>
       <c r="G628" t="s">
         <v>154</v>
       </c>
@@ -27724,6 +28270,9 @@
       <c r="E632" t="s">
         <v>1786</v>
       </c>
+      <c r="F632" t="s">
+        <v>2391</v>
+      </c>
       <c r="G632" t="s">
         <v>1662</v>
       </c>
@@ -27913,6 +28462,9 @@
       <c r="E638" t="s">
         <v>1786</v>
       </c>
+      <c r="F638" t="s">
+        <v>2391</v>
+      </c>
       <c r="G638" t="s">
         <v>1937</v>
       </c>
@@ -27942,6 +28494,9 @@
       <c r="E639" t="s">
         <v>1786</v>
       </c>
+      <c r="F639" t="s">
+        <v>2391</v>
+      </c>
       <c r="G639" t="s">
         <v>1940</v>
       </c>
@@ -28003,6 +28558,9 @@
       <c r="E641" t="s">
         <v>1786</v>
       </c>
+      <c r="F641" t="s">
+        <v>2391</v>
+      </c>
       <c r="G641" t="s">
         <v>1945</v>
       </c>
@@ -28192,6 +28750,9 @@
       <c r="E647" t="s">
         <v>1786</v>
       </c>
+      <c r="F647" t="s">
+        <v>2391</v>
+      </c>
       <c r="G647">
         <v>0</v>
       </c>
@@ -28285,6 +28846,9 @@
       <c r="E650" t="s">
         <v>1957</v>
       </c>
+      <c r="F650" t="s">
+        <v>2391</v>
+      </c>
       <c r="G650" t="s">
         <v>1965</v>
       </c>
@@ -28346,6 +28910,9 @@
       <c r="E652" t="s">
         <v>1957</v>
       </c>
+      <c r="F652" t="s">
+        <v>2391</v>
+      </c>
       <c r="G652" t="s">
         <v>557</v>
       </c>
@@ -28535,6 +29102,9 @@
       <c r="E658" t="s">
         <v>1971</v>
       </c>
+      <c r="F658" t="s">
+        <v>2391</v>
+      </c>
       <c r="G658" t="s">
         <v>1986</v>
       </c>
@@ -28596,6 +29166,9 @@
       <c r="E660" t="s">
         <v>1971</v>
       </c>
+      <c r="F660" t="s">
+        <v>2391</v>
+      </c>
       <c r="G660" t="s">
         <v>1991</v>
       </c>
@@ -28689,6 +29262,9 @@
       <c r="E663" t="s">
         <v>1971</v>
       </c>
+      <c r="F663" t="s">
+        <v>2391</v>
+      </c>
       <c r="G663" t="s">
         <v>1995</v>
       </c>
@@ -28846,6 +29422,9 @@
       <c r="E668" t="s">
         <v>1971</v>
       </c>
+      <c r="F668" t="s">
+        <v>2391</v>
+      </c>
       <c r="G668" t="s">
         <v>2008</v>
       </c>
@@ -28939,6 +29518,9 @@
       <c r="E671" t="s">
         <v>2016</v>
       </c>
+      <c r="F671" t="s">
+        <v>2391</v>
+      </c>
       <c r="G671" t="s">
         <v>2017</v>
       </c>
@@ -29128,6 +29710,9 @@
       <c r="E677" t="s">
         <v>2019</v>
       </c>
+      <c r="F677" t="s">
+        <v>2391</v>
+      </c>
       <c r="G677">
         <v>0</v>
       </c>
@@ -29189,6 +29774,9 @@
       <c r="E679" t="s">
         <v>2019</v>
       </c>
+      <c r="F679" t="s">
+        <v>2391</v>
+      </c>
       <c r="G679" t="s">
         <v>2039</v>
       </c>
@@ -29218,6 +29806,9 @@
       <c r="E680" t="s">
         <v>2019</v>
       </c>
+      <c r="F680" t="s">
+        <v>2391</v>
+      </c>
       <c r="G680" t="s">
         <v>2042</v>
       </c>
@@ -29279,6 +29870,9 @@
       <c r="E682" t="s">
         <v>2019</v>
       </c>
+      <c r="F682" t="s">
+        <v>2391</v>
+      </c>
       <c r="G682" t="s">
         <v>2046</v>
       </c>
@@ -29340,6 +29934,9 @@
       <c r="E684" t="s">
         <v>2019</v>
       </c>
+      <c r="F684" t="s">
+        <v>2391</v>
+      </c>
       <c r="G684" t="s">
         <v>311</v>
       </c>
@@ -29401,6 +29998,9 @@
       <c r="E686" t="s">
         <v>2019</v>
       </c>
+      <c r="F686" t="s">
+        <v>2391</v>
+      </c>
       <c r="G686" t="s">
         <v>2056</v>
       </c>
@@ -29590,6 +30190,9 @@
       <c r="E692" t="s">
         <v>2065</v>
       </c>
+      <c r="F692" t="s">
+        <v>2391</v>
+      </c>
       <c r="G692" t="s">
         <v>2070</v>
       </c>
@@ -29811,6 +30414,9 @@
       <c r="E699" t="s">
         <v>2078</v>
       </c>
+      <c r="F699" t="s">
+        <v>2391</v>
+      </c>
       <c r="G699" t="s">
         <v>1641</v>
       </c>
@@ -29840,6 +30446,9 @@
       <c r="E700" t="s">
         <v>2078</v>
       </c>
+      <c r="F700" t="s">
+        <v>2391</v>
+      </c>
       <c r="G700" t="s">
         <v>2086</v>
       </c>
@@ -29869,6 +30478,9 @@
       <c r="E701" t="s">
         <v>2078</v>
       </c>
+      <c r="F701" t="s">
+        <v>2391</v>
+      </c>
       <c r="G701" t="s">
         <v>1309</v>
       </c>
@@ -29930,6 +30542,9 @@
       <c r="E703" t="s">
         <v>2078</v>
       </c>
+      <c r="F703" t="s">
+        <v>2391</v>
+      </c>
       <c r="G703" t="s">
         <v>2093</v>
       </c>
@@ -30055,6 +30670,9 @@
       <c r="E707" t="s">
         <v>2078</v>
       </c>
+      <c r="F707" t="s">
+        <v>2391</v>
+      </c>
       <c r="G707" t="s">
         <v>1688</v>
       </c>
@@ -30084,6 +30702,9 @@
       <c r="E708" t="s">
         <v>2104</v>
       </c>
+      <c r="F708" t="s">
+        <v>2391</v>
+      </c>
       <c r="G708" t="s">
         <v>2105</v>
       </c>
@@ -30465,6 +31086,9 @@
       <c r="E720" t="s">
         <v>2121</v>
       </c>
+      <c r="F720" t="s">
+        <v>2391</v>
+      </c>
       <c r="G720" t="s">
         <v>647</v>
       </c>
@@ -30590,6 +31214,9 @@
       <c r="E724" t="s">
         <v>2121</v>
       </c>
+      <c r="F724" t="s">
+        <v>2391</v>
+      </c>
       <c r="G724" t="s">
         <v>2144</v>
       </c>
@@ -30619,6 +31246,9 @@
       <c r="E725" t="s">
         <v>2121</v>
       </c>
+      <c r="F725" t="s">
+        <v>2391</v>
+      </c>
       <c r="G725" t="s">
         <v>941</v>
       </c>
@@ -30648,6 +31278,9 @@
       <c r="E726" t="s">
         <v>2121</v>
       </c>
+      <c r="F726" t="s">
+        <v>2391</v>
+      </c>
       <c r="G726" t="s">
         <v>2148</v>
       </c>
@@ -30837,6 +31470,9 @@
       <c r="E732" t="s">
         <v>2121</v>
       </c>
+      <c r="F732" t="s">
+        <v>2391</v>
+      </c>
       <c r="G732" t="s">
         <v>2165</v>
       </c>
@@ -30866,6 +31502,9 @@
       <c r="E733" t="s">
         <v>2121</v>
       </c>
+      <c r="F733" t="s">
+        <v>2391</v>
+      </c>
       <c r="G733" t="s">
         <v>2169</v>
       </c>
@@ -31055,6 +31694,9 @@
       <c r="E739" t="s">
         <v>2178</v>
       </c>
+      <c r="F739" t="s">
+        <v>2391</v>
+      </c>
       <c r="G739" t="s">
         <v>108</v>
       </c>
@@ -31148,6 +31790,9 @@
       <c r="E742" t="s">
         <v>2178</v>
       </c>
+      <c r="F742" t="s">
+        <v>2391</v>
+      </c>
       <c r="G742" t="s">
         <v>2190</v>
       </c>
@@ -31209,6 +31854,9 @@
       <c r="E744" t="s">
         <v>2178</v>
       </c>
+      <c r="F744" t="s">
+        <v>2391</v>
+      </c>
       <c r="G744" t="s">
         <v>70</v>
       </c>
@@ -31238,6 +31886,9 @@
       <c r="E745" t="s">
         <v>2178</v>
       </c>
+      <c r="F745" t="s">
+        <v>2391</v>
+      </c>
       <c r="G745" t="s">
         <v>2195</v>
       </c>
@@ -31395,6 +32046,9 @@
       <c r="E750" t="s">
         <v>45</v>
       </c>
+      <c r="F750" t="s">
+        <v>2391</v>
+      </c>
       <c r="G750" t="s">
         <v>2207</v>
       </c>
@@ -31520,6 +32174,9 @@
       <c r="E754" t="s">
         <v>45</v>
       </c>
+      <c r="F754" t="s">
+        <v>2391</v>
+      </c>
       <c r="G754" t="s">
         <v>2215</v>
       </c>
@@ -31645,6 +32302,9 @@
       <c r="E758" t="s">
         <v>45</v>
       </c>
+      <c r="F758" t="s">
+        <v>2391</v>
+      </c>
       <c r="G758" t="s">
         <v>2222</v>
       </c>
@@ -31834,6 +32494,9 @@
       <c r="E764" t="s">
         <v>45</v>
       </c>
+      <c r="F764" t="s">
+        <v>2391</v>
+      </c>
       <c r="G764" t="s">
         <v>2215</v>
       </c>
@@ -31991,6 +32654,9 @@
       <c r="E769" t="s">
         <v>2241</v>
       </c>
+      <c r="F769" t="s">
+        <v>2391</v>
+      </c>
       <c r="G769" t="s">
         <v>2249</v>
       </c>
@@ -32116,6 +32782,9 @@
       <c r="E773" t="s">
         <v>1089</v>
       </c>
+      <c r="F773" t="s">
+        <v>2391</v>
+      </c>
       <c r="G773" t="s">
         <v>17</v>
       </c>
@@ -32177,6 +32846,9 @@
       <c r="E775" t="s">
         <v>1089</v>
       </c>
+      <c r="F775" t="s">
+        <v>2391</v>
+      </c>
       <c r="G775" t="s">
         <v>1352</v>
       </c>
@@ -32302,6 +32974,9 @@
       <c r="E779" t="s">
         <v>1089</v>
       </c>
+      <c r="F779" t="s">
+        <v>2391</v>
+      </c>
       <c r="G779" t="s">
         <v>2271</v>
       </c>
@@ -32331,6 +33006,9 @@
       <c r="E780" t="s">
         <v>1089</v>
       </c>
+      <c r="F780" t="s">
+        <v>2391</v>
+      </c>
       <c r="G780" t="s">
         <v>2274</v>
       </c>
@@ -32424,6 +33102,9 @@
       <c r="E783" t="s">
         <v>1089</v>
       </c>
+      <c r="F783" t="s">
+        <v>2391</v>
+      </c>
       <c r="G783" t="s">
         <v>1788</v>
       </c>
@@ -32485,6 +33166,9 @@
       <c r="E785" t="s">
         <v>1089</v>
       </c>
+      <c r="F785" t="s">
+        <v>2391</v>
+      </c>
       <c r="G785" t="s">
         <v>2285</v>
       </c>
@@ -32514,6 +33198,9 @@
       <c r="E786" t="s">
         <v>1089</v>
       </c>
+      <c r="F786" t="s">
+        <v>2391</v>
+      </c>
       <c r="G786" t="s">
         <v>294</v>
       </c>
@@ -32543,6 +33230,9 @@
       <c r="E787" t="s">
         <v>1089</v>
       </c>
+      <c r="F787" t="s">
+        <v>2391</v>
+      </c>
       <c r="G787" t="s">
         <v>2289</v>
       </c>
@@ -32572,6 +33262,9 @@
       <c r="E788" t="s">
         <v>1089</v>
       </c>
+      <c r="F788" t="s">
+        <v>2391</v>
+      </c>
       <c r="G788" t="s">
         <v>2033</v>
       </c>
@@ -33081,6 +33774,9 @@
       <c r="E804" t="s">
         <v>192</v>
       </c>
+      <c r="F804" t="s">
+        <v>2391</v>
+      </c>
       <c r="G804" t="s">
         <v>2325</v>
       </c>
@@ -33174,6 +33870,9 @@
       <c r="E807" t="s">
         <v>192</v>
       </c>
+      <c r="F807" t="s">
+        <v>2391</v>
+      </c>
       <c r="G807" t="s">
         <v>2332</v>
       </c>
@@ -33203,6 +33902,9 @@
       <c r="E808" t="s">
         <v>192</v>
       </c>
+      <c r="F808" t="s">
+        <v>2391</v>
+      </c>
       <c r="G808" t="s">
         <v>2335</v>
       </c>
@@ -33232,6 +33934,9 @@
       <c r="E809" t="s">
         <v>192</v>
       </c>
+      <c r="F809" t="s">
+        <v>2391</v>
+      </c>
       <c r="G809" t="s">
         <v>2337</v>
       </c>
@@ -33325,6 +34030,9 @@
       <c r="E812" t="s">
         <v>192</v>
       </c>
+      <c r="F812" t="s">
+        <v>2391</v>
+      </c>
       <c r="G812" t="s">
         <v>41</v>
       </c>
@@ -33354,6 +34062,9 @@
       <c r="E813" t="s">
         <v>2345</v>
       </c>
+      <c r="F813" t="s">
+        <v>2391</v>
+      </c>
       <c r="G813" t="s">
         <v>2346</v>
       </c>
@@ -33415,6 +34126,9 @@
       <c r="E815" t="s">
         <v>2345</v>
       </c>
+      <c r="F815" t="s">
+        <v>2391</v>
+      </c>
       <c r="G815" t="s">
         <v>2351</v>
       </c>
@@ -33444,6 +34158,9 @@
       <c r="E816" t="s">
         <v>2345</v>
       </c>
+      <c r="F816" t="s">
+        <v>2391</v>
+      </c>
       <c r="G816" t="s">
         <v>1022</v>
       </c>
@@ -33569,6 +34286,9 @@
       <c r="E820" t="s">
         <v>2345</v>
       </c>
+      <c r="F820" t="s">
+        <v>2391</v>
+      </c>
       <c r="G820" t="s">
         <v>1514</v>
       </c>
@@ -33822,6 +34542,9 @@
       <c r="E828" t="s">
         <v>2345</v>
       </c>
+      <c r="F828" t="s">
+        <v>2391</v>
+      </c>
       <c r="G828" t="s">
         <v>2381</v>
       </c>
@@ -33883,6 +34606,9 @@
       <c r="E830" t="s">
         <v>1089</v>
       </c>
+      <c r="F830" t="s">
+        <v>2391</v>
+      </c>
       <c r="G830" t="s">
         <v>2289</v>
       </c>
@@ -33912,6 +34638,9 @@
       <c r="E831" t="s">
         <v>1089</v>
       </c>
+      <c r="F831" t="s">
+        <v>2391</v>
+      </c>
       <c r="G831" t="s">
         <v>2033</v>
       </c>
@@ -34389,6 +35118,9 @@
       <c r="E846" t="s">
         <v>192</v>
       </c>
+      <c r="F846" t="s">
+        <v>2391</v>
+      </c>
       <c r="G846" t="s">
         <v>2325</v>
       </c>
@@ -34450,6 +35182,9 @@
       <c r="E848" t="s">
         <v>192</v>
       </c>
+      <c r="F848" t="s">
+        <v>2391</v>
+      </c>
       <c r="G848" t="s">
         <v>2332</v>
       </c>
@@ -34479,6 +35214,9 @@
       <c r="E849" t="s">
         <v>192</v>
       </c>
+      <c r="F849" t="s">
+        <v>2391</v>
+      </c>
       <c r="G849" t="s">
         <v>2335</v>
       </c>
@@ -34508,6 +35246,9 @@
       <c r="E850" t="s">
         <v>192</v>
       </c>
+      <c r="F850" t="s">
+        <v>2391</v>
+      </c>
       <c r="G850" t="s">
         <v>2337</v>
       </c>
@@ -34601,6 +35342,9 @@
       <c r="E853" t="s">
         <v>192</v>
       </c>
+      <c r="F853" t="s">
+        <v>2391</v>
+      </c>
       <c r="G853" t="s">
         <v>41</v>
       </c>
@@ -34630,6 +35374,9 @@
       <c r="E854" t="s">
         <v>2345</v>
       </c>
+      <c r="F854" t="s">
+        <v>2391</v>
+      </c>
       <c r="G854" t="s">
         <v>2346</v>
       </c>
@@ -34691,6 +35438,9 @@
       <c r="E856" t="s">
         <v>2345</v>
       </c>
+      <c r="F856" t="s">
+        <v>2391</v>
+      </c>
       <c r="G856" t="s">
         <v>2351</v>
       </c>
@@ -34720,6 +35470,9 @@
       <c r="E857" t="s">
         <v>2345</v>
       </c>
+      <c r="F857" t="s">
+        <v>2391</v>
+      </c>
       <c r="G857" t="s">
         <v>1022</v>
       </c>
@@ -35068,6 +35821,9 @@
       </c>
       <c r="E868" t="s">
         <v>2345</v>
+      </c>
+      <c r="F868" t="s">
+        <v>2391</v>
       </c>
       <c r="G868" t="s">
         <v>2381</v>
